--- a/data/bulk/bu/mk/AAA_f18_text.xlsx
+++ b/data/bulk/bu/mk/AAA_f18_text.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohamed/Desktop/AAA/18/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rprojects\eamena-arches-dev\data\bulk\bu\mk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC758EF-C8C5-7745-B936-6EF7FC61F1C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EBF14F1-24B2-446D-9FCF-33829B2A55E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="260" yWindow="500" windowWidth="28800" windowHeight="16580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -9492,7 +9494,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -9567,12 +9569,24 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="6">
@@ -9650,7 +9664,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -9688,6 +9702,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9970,18 +9986,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH603"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="H590" sqref="H590:H603"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" customWidth="1"/>
-    <col min="8" max="8" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.19921875" customWidth="1"/>
+    <col min="8" max="8" width="41.69921875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="94.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="6" customFormat="1" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" s="6" customFormat="1" ht="31.95" customHeight="1" thickBot="1">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -10085,7 +10104,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="290" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" ht="265.8" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>559</v>
       </c>
@@ -10117,17 +10136,17 @@
       <c r="K2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M2" t="s">
-        <v>27</v>
-      </c>
-      <c r="U2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M2" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="U2" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y2" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" ht="31.8" thickBot="1">
       <c r="A3" s="1" t="s">
         <v>560</v>
       </c>
@@ -10160,7 +10179,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:34" ht="37" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" ht="34.799999999999997" thickBot="1">
       <c r="A4" s="1" t="s">
         <v>561</v>
       </c>
@@ -10193,7 +10212,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:34" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" ht="31.8" thickBot="1">
       <c r="A5" s="1" t="s">
         <v>562</v>
       </c>
@@ -10230,7 +10249,7 @@
       </c>
       <c r="AA5" s="7"/>
     </row>
-    <row r="6" spans="1:34" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" ht="31.8" thickBot="1">
       <c r="A6" s="1" t="s">
         <v>563</v>
       </c>
@@ -10269,7 +10288,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:34" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" ht="16.2" thickBot="1">
       <c r="A7" s="1" t="s">
         <v>564</v>
       </c>
@@ -10305,7 +10324,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:34" ht="103" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" ht="94.2" thickBot="1">
       <c r="A8" s="1" t="s">
         <v>565</v>
       </c>
@@ -10341,7 +10360,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:34" ht="105" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" ht="97.2" thickBot="1">
       <c r="A9" s="1" t="s">
         <v>566</v>
       </c>
@@ -10377,7 +10396,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:34" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" ht="19.2" thickBot="1">
       <c r="A10" s="1" t="s">
         <v>567</v>
       </c>
@@ -10413,7 +10432,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:34" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" ht="19.2" thickBot="1">
       <c r="A11" s="1" t="s">
         <v>568</v>
       </c>
@@ -10449,7 +10468,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:34" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" ht="31.8" thickBot="1">
       <c r="A12" s="1" t="s">
         <v>569</v>
       </c>
@@ -10485,7 +10504,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:34" ht="37" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" ht="34.799999999999997" thickBot="1">
       <c r="A13" s="1" t="s">
         <v>570</v>
       </c>
@@ -10521,7 +10540,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:34" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" ht="19.2" thickBot="1">
       <c r="A14" s="1" t="s">
         <v>571</v>
       </c>
@@ -10554,7 +10573,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:34" ht="37" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" ht="34.799999999999997" thickBot="1">
       <c r="A15" s="1" t="s">
         <v>572</v>
       </c>
@@ -10590,7 +10609,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:34" ht="71" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" ht="66" thickBot="1">
       <c r="A16" s="1" t="s">
         <v>573</v>
       </c>
@@ -10623,7 +10642,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:29" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" ht="16.2" thickBot="1">
       <c r="A17" s="1" t="s">
         <v>574</v>
       </c>
@@ -10656,7 +10675,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:29" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" ht="47.4" thickBot="1">
       <c r="A18" s="1" t="s">
         <v>575</v>
       </c>
@@ -10689,7 +10708,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" ht="31.8" thickBot="1">
       <c r="A19" s="1" t="s">
         <v>576</v>
       </c>
@@ -10722,7 +10741,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:29" ht="54" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" ht="50.4" thickBot="1">
       <c r="A20" s="1" t="s">
         <v>577</v>
       </c>
@@ -10755,7 +10774,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:29" ht="207" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" ht="190.8" thickBot="1">
       <c r="A21" s="1" t="s">
         <v>578</v>
       </c>
@@ -10794,7 +10813,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:29" ht="207" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" ht="190.8" thickBot="1">
       <c r="A22" s="1" t="s">
         <v>579</v>
       </c>
@@ -10830,7 +10849,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:29" ht="71" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" ht="66" thickBot="1">
       <c r="A23" s="1" t="s">
         <v>580</v>
       </c>
@@ -10863,7 +10882,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:29" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" ht="63" thickBot="1">
       <c r="A24" s="1" t="s">
         <v>581</v>
       </c>
@@ -10896,7 +10915,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:29" ht="122" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" ht="112.8" thickBot="1">
       <c r="A25" s="1" t="s">
         <v>582</v>
       </c>
@@ -10932,7 +10951,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:29" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29" ht="47.4" thickBot="1">
       <c r="A26" s="1" t="s">
         <v>583</v>
       </c>
@@ -10965,7 +10984,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:29" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:29" ht="19.2" thickBot="1">
       <c r="A27" s="1" t="s">
         <v>584</v>
       </c>
@@ -10998,7 +11017,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29" ht="31.8" thickBot="1">
       <c r="A28" s="1" t="s">
         <v>585</v>
       </c>
@@ -11037,7 +11056,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:29" ht="86" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29" ht="78.599999999999994" thickBot="1">
       <c r="A29" s="1" t="s">
         <v>586</v>
       </c>
@@ -11073,7 +11092,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:29" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29" ht="47.4" thickBot="1">
       <c r="A30" s="1" t="s">
         <v>587</v>
       </c>
@@ -11109,7 +11128,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:29" ht="31.8" thickBot="1">
       <c r="A31" s="1" t="s">
         <v>588</v>
       </c>
@@ -11148,7 +11167,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:29" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:29" ht="47.4" thickBot="1">
       <c r="A32" s="1" t="s">
         <v>589</v>
       </c>
@@ -11181,7 +11200,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="88" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" ht="81.599999999999994" thickBot="1">
       <c r="A33" s="1" t="s">
         <v>590</v>
       </c>
@@ -11217,7 +11236,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" ht="19.2" thickBot="1">
       <c r="A34" s="1" t="s">
         <v>591</v>
       </c>
@@ -11253,7 +11272,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="103" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" ht="94.2" thickBot="1">
       <c r="A35" s="1" t="s">
         <v>592</v>
       </c>
@@ -11289,7 +11308,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" ht="19.2" thickBot="1">
       <c r="A36" s="1" t="s">
         <v>593</v>
       </c>
@@ -11322,7 +11341,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" ht="63" thickBot="1">
       <c r="A37" s="1" t="s">
         <v>594</v>
       </c>
@@ -11361,7 +11380,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" ht="47.4" thickBot="1">
       <c r="A38" s="1" t="s">
         <v>595</v>
       </c>
@@ -11403,7 +11422,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" ht="31.8" thickBot="1">
       <c r="A39" s="1" t="s">
         <v>596</v>
       </c>
@@ -11442,7 +11461,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="71" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" ht="66" thickBot="1">
       <c r="A40" s="1" t="s">
         <v>597</v>
       </c>
@@ -11475,7 +11494,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="37" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" ht="34.799999999999997" thickBot="1">
       <c r="A41" s="1" t="s">
         <v>598</v>
       </c>
@@ -11511,7 +11530,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="86" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" ht="78.599999999999994" thickBot="1">
       <c r="A42" s="1" t="s">
         <v>599</v>
       </c>
@@ -11550,7 +11569,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="120" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" ht="109.8" thickBot="1">
       <c r="A43" s="1" t="s">
         <v>600</v>
       </c>
@@ -11589,7 +11608,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="122" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" ht="112.8" thickBot="1">
       <c r="A44" s="1" t="s">
         <v>601</v>
       </c>
@@ -11628,7 +11647,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" ht="31.8" thickBot="1">
       <c r="A45" s="1" t="s">
         <v>602</v>
       </c>
@@ -11661,7 +11680,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="86" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" ht="78.599999999999994" thickBot="1">
       <c r="A46" s="1" t="s">
         <v>603</v>
       </c>
@@ -11694,7 +11713,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="37" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" ht="34.799999999999997" thickBot="1">
       <c r="A47" s="1" t="s">
         <v>604</v>
       </c>
@@ -11730,7 +11749,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" ht="47.4" thickBot="1">
       <c r="A48" s="1" t="s">
         <v>605</v>
       </c>
@@ -11763,7 +11782,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:28" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:28" ht="47.4" thickBot="1">
       <c r="A49" s="1" t="s">
         <v>606</v>
       </c>
@@ -11796,7 +11815,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="1:28" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:28" ht="19.2" thickBot="1">
       <c r="A50" s="1" t="s">
         <v>607</v>
       </c>
@@ -11829,7 +11848,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:28" ht="37" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:28" ht="34.799999999999997" thickBot="1">
       <c r="A51" s="1" t="s">
         <v>608</v>
       </c>
@@ -11862,7 +11881,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:28" ht="86" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:28" ht="78.599999999999994" thickBot="1">
       <c r="A52" s="1" t="s">
         <v>609</v>
       </c>
@@ -11897,7 +11916,7 @@
       <c r="AA52" s="7"/>
       <c r="AB52" s="7"/>
     </row>
-    <row r="53" spans="1:28" ht="37" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:28" ht="34.799999999999997" thickBot="1">
       <c r="A53" s="1" t="s">
         <v>610</v>
       </c>
@@ -11930,7 +11949,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="1:28" ht="37" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:28" ht="34.799999999999997" thickBot="1">
       <c r="A54" s="1" t="s">
         <v>611</v>
       </c>
@@ -11963,7 +11982,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="1:28" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:28" ht="31.8" thickBot="1">
       <c r="A55" s="1" t="s">
         <v>612</v>
       </c>
@@ -11999,7 +12018,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="56" spans="1:28" ht="37" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:28" ht="34.799999999999997" thickBot="1">
       <c r="A56" s="1" t="s">
         <v>613</v>
       </c>
@@ -12032,7 +12051,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="57" spans="1:28" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:28" ht="19.2" thickBot="1">
       <c r="A57" s="1" t="s">
         <v>614</v>
       </c>
@@ -12065,7 +12084,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="58" spans="1:28" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:28" ht="63" thickBot="1">
       <c r="A58" s="1" t="s">
         <v>615</v>
       </c>
@@ -12101,7 +12120,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="59" spans="1:28" ht="105" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:28" ht="97.2" thickBot="1">
       <c r="A59" s="1" t="s">
         <v>616</v>
       </c>
@@ -12134,7 +12153,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="60" spans="1:28" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:28" ht="47.4" thickBot="1">
       <c r="A60" s="1" t="s">
         <v>617</v>
       </c>
@@ -12167,7 +12186,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="1:28" ht="37" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:28" ht="34.799999999999997" thickBot="1">
       <c r="A61" s="1" t="s">
         <v>618</v>
       </c>
@@ -12200,7 +12219,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="62" spans="1:28" ht="37" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:28" ht="34.799999999999997" thickBot="1">
       <c r="A62" s="1" t="s">
         <v>619</v>
       </c>
@@ -12233,7 +12252,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="1:28" ht="37" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:28" ht="34.799999999999997" thickBot="1">
       <c r="A63" s="1" t="s">
         <v>620</v>
       </c>
@@ -12266,7 +12285,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="64" spans="1:28" ht="54" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:28" ht="50.4" thickBot="1">
       <c r="A64" s="1" t="s">
         <v>621</v>
       </c>
@@ -12302,7 +12321,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:29" ht="71" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:29" ht="66" thickBot="1">
       <c r="A65" s="1" t="s">
         <v>622</v>
       </c>
@@ -12341,7 +12360,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="66" spans="1:29" ht="103" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:29" ht="94.2" thickBot="1">
       <c r="A66" s="1" t="s">
         <v>623</v>
       </c>
@@ -12377,7 +12396,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="67" spans="1:29" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:29" ht="47.4" thickBot="1">
       <c r="A67" s="1" t="s">
         <v>624</v>
       </c>
@@ -12410,7 +12429,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="68" spans="1:29" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:29" ht="63" thickBot="1">
       <c r="A68" s="1" t="s">
         <v>625</v>
       </c>
@@ -12449,7 +12468,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="69" spans="1:29" ht="37" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:29" ht="34.799999999999997" thickBot="1">
       <c r="A69" s="1" t="s">
         <v>626</v>
       </c>
@@ -12479,7 +12498,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="70" spans="1:29" ht="37" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:29" ht="34.799999999999997" thickBot="1">
       <c r="A70" s="1" t="s">
         <v>627</v>
       </c>
@@ -12512,7 +12531,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="71" spans="1:29" ht="88" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:29" ht="81.599999999999994" thickBot="1">
       <c r="A71" s="1" t="s">
         <v>628</v>
       </c>
@@ -12545,7 +12564,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="72" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:29" ht="31.8" thickBot="1">
       <c r="A72" s="1" t="s">
         <v>629</v>
       </c>
@@ -12575,7 +12594,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="73" spans="1:29" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:29" ht="16.2" thickBot="1">
       <c r="A73" s="1" t="s">
         <v>630</v>
       </c>
@@ -12608,7 +12627,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="74" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:29" ht="31.8" thickBot="1">
       <c r="A74" s="1" t="s">
         <v>631</v>
       </c>
@@ -12644,7 +12663,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="75" spans="1:29" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:29" ht="63" thickBot="1">
       <c r="A75" s="1" t="s">
         <v>632</v>
       </c>
@@ -12680,7 +12699,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="76" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:29" ht="31.8" thickBot="1">
       <c r="A76" s="1" t="s">
         <v>633</v>
       </c>
@@ -12716,7 +12735,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="77" spans="1:29" ht="71" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:29" ht="66" thickBot="1">
       <c r="A77" s="1" t="s">
         <v>634</v>
       </c>
@@ -12755,7 +12774,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="78" spans="1:29" ht="37" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:29" ht="34.799999999999997" thickBot="1">
       <c r="A78" s="1" t="s">
         <v>635</v>
       </c>
@@ -12791,7 +12810,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="79" spans="1:29" ht="37" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:29" ht="34.799999999999997" thickBot="1">
       <c r="A79" s="1" t="s">
         <v>636</v>
       </c>
@@ -12827,7 +12846,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="80" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:29" ht="31.8" thickBot="1">
       <c r="A80" s="1" t="s">
         <v>637</v>
       </c>
@@ -12866,7 +12885,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="81" spans="1:25" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:25" ht="31.8" thickBot="1">
       <c r="A81" s="1" t="s">
         <v>638</v>
       </c>
@@ -12899,7 +12918,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="82" spans="1:25" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:25" ht="47.4" thickBot="1">
       <c r="A82" s="1" t="s">
         <v>639</v>
       </c>
@@ -12935,7 +12954,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="83" spans="1:25" ht="137" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:25" ht="125.4" thickBot="1">
       <c r="A83" s="1" t="s">
         <v>640</v>
       </c>
@@ -12971,7 +12990,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="84" spans="1:25" ht="122" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:25" ht="112.8" thickBot="1">
       <c r="A84" s="1" t="s">
         <v>641</v>
       </c>
@@ -13007,7 +13026,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="85" spans="1:25" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:25" ht="47.4" thickBot="1">
       <c r="A85" s="1" t="s">
         <v>642</v>
       </c>
@@ -13040,7 +13059,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="86" spans="1:25" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:25" ht="47.4" thickBot="1">
       <c r="A86" s="1" t="s">
         <v>643</v>
       </c>
@@ -13073,7 +13092,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="87" spans="1:25" ht="71" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:25" ht="66" thickBot="1">
       <c r="A87" s="1" t="s">
         <v>644</v>
       </c>
@@ -13106,7 +13125,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="88" spans="1:25" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:25" ht="31.8" thickBot="1">
       <c r="A88" s="1" t="s">
         <v>645</v>
       </c>
@@ -13142,7 +13161,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="89" spans="1:25" ht="73" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:25" ht="69" thickBot="1">
       <c r="A89" s="1" t="s">
         <v>646</v>
       </c>
@@ -13175,7 +13194,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="90" spans="1:25" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:25" ht="63" thickBot="1">
       <c r="A90" s="1" t="s">
         <v>647</v>
       </c>
@@ -13211,7 +13230,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="91" spans="1:25" ht="88" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:25" ht="81.599999999999994" thickBot="1">
       <c r="A91" s="1" t="s">
         <v>648</v>
       </c>
@@ -13244,7 +13263,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="92" spans="1:25" ht="54" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:25" ht="50.4" thickBot="1">
       <c r="A92" s="1" t="s">
         <v>649</v>
       </c>
@@ -13277,7 +13296,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="93" spans="1:25" ht="37" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:25" ht="34.799999999999997" thickBot="1">
       <c r="A93" s="1" t="s">
         <v>650</v>
       </c>
@@ -13313,7 +13332,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="94" spans="1:25" ht="37" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:25" ht="34.799999999999997" thickBot="1">
       <c r="A94" s="1" t="s">
         <v>651</v>
       </c>
@@ -13349,7 +13368,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="95" spans="1:25" ht="37" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:25" ht="34.799999999999997" thickBot="1">
       <c r="A95" s="1" t="s">
         <v>652</v>
       </c>
@@ -13382,7 +13401,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="96" spans="1:25" ht="71" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:25" ht="66" thickBot="1">
       <c r="A96" s="1" t="s">
         <v>653</v>
       </c>
@@ -13421,7 +13440,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="97" spans="1:29" ht="37" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:29" ht="34.799999999999997" thickBot="1">
       <c r="A97" s="1" t="s">
         <v>654</v>
       </c>
@@ -13454,7 +13473,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="98" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:29" ht="31.8" thickBot="1">
       <c r="A98" s="1" t="s">
         <v>655</v>
       </c>
@@ -13487,7 +13506,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="99" spans="1:29" ht="37" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:29" ht="34.799999999999997" thickBot="1">
       <c r="A99" s="1" t="s">
         <v>656</v>
       </c>
@@ -13526,7 +13545,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="100" spans="1:29" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:29" ht="37.799999999999997" thickBot="1">
       <c r="A100" s="1" t="s">
         <v>657</v>
       </c>
@@ -13559,7 +13578,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="101" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:29" ht="31.8" thickBot="1">
       <c r="A101" s="1" t="s">
         <v>658</v>
       </c>
@@ -13598,7 +13617,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="102" spans="1:29" ht="71" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:29" ht="66" thickBot="1">
       <c r="A102" s="1" t="s">
         <v>659</v>
       </c>
@@ -13631,7 +13650,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="103" spans="1:29" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:29" ht="47.4" thickBot="1">
       <c r="A103" s="1" t="s">
         <v>660</v>
       </c>
@@ -13664,7 +13683,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="104" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:29" ht="16.2" thickBot="1">
       <c r="A104" s="1" t="s">
         <v>661</v>
       </c>
@@ -13700,7 +13719,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="105" spans="1:29" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:29" ht="47.4" thickBot="1">
       <c r="A105" s="1" t="s">
         <v>662</v>
       </c>
@@ -13733,7 +13752,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="106" spans="1:29" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:29" ht="47.4" thickBot="1">
       <c r="A106" s="1" t="s">
         <v>663</v>
       </c>
@@ -13763,7 +13782,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="107" spans="1:29" ht="88" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:29" ht="81.599999999999994" thickBot="1">
       <c r="A107" s="1" t="s">
         <v>664</v>
       </c>
@@ -13796,7 +13815,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="108" spans="1:29" ht="56" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:29" ht="53.4" thickBot="1">
       <c r="A108" s="1" t="s">
         <v>665</v>
       </c>
@@ -13832,7 +13851,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="109" spans="1:29" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:29" ht="409.6" thickBot="1">
       <c r="A109" s="1" t="s">
         <v>666</v>
       </c>
@@ -13874,7 +13893,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="110" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:29" ht="31.8" thickBot="1">
       <c r="A110" s="1" t="s">
         <v>667</v>
       </c>
@@ -13904,7 +13923,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="111" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:29" ht="31.8" thickBot="1">
       <c r="A111" s="1" t="s">
         <v>668</v>
       </c>
@@ -13934,7 +13953,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="112" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:29" ht="31.8" thickBot="1">
       <c r="A112" s="1" t="s">
         <v>668</v>
       </c>
@@ -13964,7 +13983,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="113" spans="1:11" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" ht="31.8" thickBot="1">
       <c r="A113" s="1" t="s">
         <v>668</v>
       </c>
@@ -13994,7 +14013,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" ht="31.8" thickBot="1">
       <c r="A114" s="1" t="s">
         <v>670</v>
       </c>
@@ -14024,7 +14043,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" ht="47.4" thickBot="1">
       <c r="A115" s="1" t="s">
         <v>671</v>
       </c>
@@ -14054,7 +14073,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" ht="31.8" thickBot="1">
       <c r="A116" s="1" t="s">
         <v>672</v>
       </c>
@@ -14084,7 +14103,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" ht="31.8" thickBot="1">
       <c r="A117" s="1" t="s">
         <v>669</v>
       </c>
@@ -14114,7 +14133,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="118" spans="1:11" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" ht="31.8" thickBot="1">
       <c r="A118" s="1" t="s">
         <v>673</v>
       </c>
@@ -14144,7 +14163,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="119" spans="1:11" ht="139" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" ht="128.4" thickBot="1">
       <c r="A119" s="1" t="s">
         <v>674</v>
       </c>
@@ -14174,7 +14193,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" ht="47.4" thickBot="1">
       <c r="A120" s="1" t="s">
         <v>675</v>
       </c>
@@ -14204,7 +14223,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" ht="31.8" thickBot="1">
       <c r="A121" s="1" t="s">
         <v>676</v>
       </c>
@@ -14234,7 +14253,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="122" spans="1:11" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" ht="31.8" thickBot="1">
       <c r="A122" s="1" t="s">
         <v>677</v>
       </c>
@@ -14264,7 +14283,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="123" spans="1:11" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" ht="31.8" thickBot="1">
       <c r="A123" s="1" t="s">
         <v>678</v>
       </c>
@@ -14294,7 +14313,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="124" spans="1:11" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" ht="31.8" thickBot="1">
       <c r="A124" s="1" t="s">
         <v>678</v>
       </c>
@@ -14324,7 +14343,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="125" spans="1:11" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" ht="47.4" thickBot="1">
       <c r="A125" s="1" t="s">
         <v>679</v>
       </c>
@@ -14354,7 +14373,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="126" spans="1:11" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" ht="31.8" thickBot="1">
       <c r="A126" s="1" t="s">
         <v>680</v>
       </c>
@@ -14384,7 +14403,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="127" spans="1:11" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" ht="31.8" thickBot="1">
       <c r="A127" s="1" t="s">
         <v>681</v>
       </c>
@@ -14414,7 +14433,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="128" spans="1:11" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" ht="63" thickBot="1">
       <c r="A128" s="1" t="s">
         <v>682</v>
       </c>
@@ -14444,7 +14463,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="129" spans="1:16" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:16" ht="47.4" thickBot="1">
       <c r="A129" s="1" t="s">
         <v>683</v>
       </c>
@@ -14474,7 +14493,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="130" spans="1:16" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:16" ht="47.4" thickBot="1">
       <c r="A130" s="1" t="s">
         <v>684</v>
       </c>
@@ -14504,7 +14523,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="131" spans="1:16" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:16" ht="409.6" thickBot="1">
       <c r="A131" s="1" t="s">
         <v>685</v>
       </c>
@@ -14534,7 +14553,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="132" spans="1:16" ht="37" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:16" ht="34.799999999999997" thickBot="1">
       <c r="A132" s="1" t="s">
         <v>686</v>
       </c>
@@ -14570,7 +14589,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="133" spans="1:16" ht="137" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:16" ht="125.4" thickBot="1">
       <c r="A133" s="1" t="s">
         <v>898</v>
       </c>
@@ -14609,7 +14628,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="134" spans="1:16" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:16" ht="19.2" thickBot="1">
       <c r="A134" s="1" t="s">
         <v>899</v>
       </c>
@@ -14642,7 +14661,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="135" spans="1:16" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:16" ht="47.4" thickBot="1">
       <c r="A135" s="1" t="s">
         <v>900</v>
       </c>
@@ -14678,7 +14697,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="136" spans="1:16" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:16" ht="47.4" thickBot="1">
       <c r="A136" s="1" t="s">
         <v>901</v>
       </c>
@@ -14717,7 +14736,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="137" spans="1:16" ht="37" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:16" ht="34.799999999999997" thickBot="1">
       <c r="A137" s="1" t="s">
         <v>902</v>
       </c>
@@ -14750,7 +14769,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="138" spans="1:16" ht="37" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:16" ht="34.799999999999997" thickBot="1">
       <c r="A138" s="1" t="s">
         <v>903</v>
       </c>
@@ -14783,7 +14802,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="139" spans="1:16" ht="37" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:16" ht="34.799999999999997" thickBot="1">
       <c r="A139" s="1" t="s">
         <v>904</v>
       </c>
@@ -14816,7 +14835,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="140" spans="1:16" ht="56" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:16" ht="53.4" thickBot="1">
       <c r="A140" s="1" t="s">
         <v>905</v>
       </c>
@@ -14852,7 +14871,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="141" spans="1:16" ht="88" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:16" ht="81.599999999999994" thickBot="1">
       <c r="A141" s="1" t="s">
         <v>906</v>
       </c>
@@ -14891,7 +14910,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="142" spans="1:16" ht="54" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:16" ht="50.4" thickBot="1">
       <c r="A142" s="1" t="s">
         <v>907</v>
       </c>
@@ -14924,7 +14943,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="143" spans="1:16" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:16" ht="47.4" thickBot="1">
       <c r="A143" s="1" t="s">
         <v>908</v>
       </c>
@@ -14954,7 +14973,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="144" spans="1:16" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:16" ht="16.2" thickBot="1">
       <c r="A144" s="1" t="s">
         <v>909</v>
       </c>
@@ -14993,7 +15012,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="145" spans="1:29" ht="103" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:29" ht="94.2" thickBot="1">
       <c r="A145" s="1" t="s">
         <v>910</v>
       </c>
@@ -15026,7 +15045,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="146" spans="1:29" ht="37" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:29" ht="34.799999999999997" thickBot="1">
       <c r="A146" s="1" t="s">
         <v>911</v>
       </c>
@@ -15062,7 +15081,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="147" spans="1:29" ht="103" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:29" ht="94.2" thickBot="1">
       <c r="A147" s="1" t="s">
         <v>912</v>
       </c>
@@ -15101,7 +15120,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="148" spans="1:29" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:29" ht="63" thickBot="1">
       <c r="A148" s="1" t="s">
         <v>913</v>
       </c>
@@ -15137,7 +15156,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="149" spans="1:29" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:29" ht="47.4" thickBot="1">
       <c r="A149" s="1" t="s">
         <v>914</v>
       </c>
@@ -15170,7 +15189,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="150" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:29" ht="31.8" thickBot="1">
       <c r="A150" s="1" t="s">
         <v>915</v>
       </c>
@@ -15203,7 +15222,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="151" spans="1:29" ht="37" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:29" ht="34.799999999999997" thickBot="1">
       <c r="A151" s="1" t="s">
         <v>916</v>
       </c>
@@ -15236,7 +15255,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="152" spans="1:29" ht="54" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:29" ht="50.4" thickBot="1">
       <c r="A152" s="1" t="s">
         <v>917</v>
       </c>
@@ -15269,7 +15288,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="153" spans="1:29" ht="54" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:29" ht="50.4" thickBot="1">
       <c r="A153" s="1" t="s">
         <v>918</v>
       </c>
@@ -15305,7 +15324,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="154" spans="1:29" ht="54" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:29" ht="50.4" thickBot="1">
       <c r="A154" s="1" t="s">
         <v>919</v>
       </c>
@@ -15338,7 +15357,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="155" spans="1:29" ht="37" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:29" ht="34.799999999999997" thickBot="1">
       <c r="A155" s="1" t="s">
         <v>920</v>
       </c>
@@ -15377,7 +15396,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="156" spans="1:29" ht="239" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:29" ht="219" thickBot="1">
       <c r="A156" s="1" t="s">
         <v>921</v>
       </c>
@@ -15413,7 +15432,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="157" spans="1:29" ht="71" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:29" ht="66" thickBot="1">
       <c r="A157" s="1" t="s">
         <v>922</v>
       </c>
@@ -15449,7 +15468,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="158" spans="1:29" ht="73" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:29" ht="69" thickBot="1">
       <c r="A158" s="1" t="s">
         <v>923</v>
       </c>
@@ -15482,7 +15501,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="159" spans="1:29" ht="373" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:29" ht="343.8" thickBot="1">
       <c r="A159" s="1" t="s">
         <v>924</v>
       </c>
@@ -15524,7 +15543,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="160" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:29" ht="19.2" thickBot="1">
       <c r="A160" s="1" t="s">
         <v>925</v>
       </c>
@@ -15557,7 +15576,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="161" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:29" ht="31.8" thickBot="1">
       <c r="A161" s="1" t="s">
         <v>926</v>
       </c>
@@ -15590,7 +15609,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="162" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:29" ht="31.8" thickBot="1">
       <c r="A162" s="1" t="s">
         <v>927</v>
       </c>
@@ -15623,7 +15642,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="163" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:29" ht="31.8" thickBot="1">
       <c r="A163" s="1" t="s">
         <v>928</v>
       </c>
@@ -15656,7 +15675,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="164" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:29" ht="19.2" thickBot="1">
       <c r="A164" s="1" t="s">
         <v>929</v>
       </c>
@@ -15689,7 +15708,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="165" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:29" ht="19.2" thickBot="1">
       <c r="A165" s="1" t="s">
         <v>930</v>
       </c>
@@ -15722,7 +15741,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="166" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:29" ht="19.2" thickBot="1">
       <c r="A166" s="1" t="s">
         <v>931</v>
       </c>
@@ -15755,7 +15774,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="167" spans="1:29" ht="86" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:29" ht="78.599999999999994" thickBot="1">
       <c r="A167" s="1" t="s">
         <v>932</v>
       </c>
@@ -15794,7 +15813,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="168" spans="1:29" ht="122" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:29" ht="112.8" thickBot="1">
       <c r="A168" s="1" t="s">
         <v>933</v>
       </c>
@@ -15830,7 +15849,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="169" spans="1:29" ht="37" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:29" ht="34.799999999999997" thickBot="1">
       <c r="A169" s="1" t="s">
         <v>934</v>
       </c>
@@ -15866,7 +15885,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="170" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:29" ht="19.2" thickBot="1">
       <c r="A170" s="1" t="s">
         <v>935</v>
       </c>
@@ -15902,7 +15921,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="171" spans="1:29" ht="37" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:29" ht="34.799999999999997" thickBot="1">
       <c r="A171" s="1" t="s">
         <v>936</v>
       </c>
@@ -15938,7 +15957,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="172" spans="1:29" ht="37" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:29" ht="34.799999999999997" thickBot="1">
       <c r="A172" s="1" t="s">
         <v>937</v>
       </c>
@@ -15974,7 +15993,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="173" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:29" ht="19.2" thickBot="1">
       <c r="A173" s="1" t="s">
         <v>938</v>
       </c>
@@ -16010,7 +16029,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="174" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:29" ht="19.2" thickBot="1">
       <c r="A174" s="1" t="s">
         <v>939</v>
       </c>
@@ -16046,7 +16065,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="175" spans="1:29" ht="103" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:29" ht="94.2" thickBot="1">
       <c r="A175" s="1" t="s">
         <v>940</v>
       </c>
@@ -16079,7 +16098,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="176" spans="1:29" ht="137" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:29" ht="125.4" thickBot="1">
       <c r="A176" s="1" t="s">
         <v>941</v>
       </c>
@@ -16112,7 +16131,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="177" spans="1:29" ht="137" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:29" ht="125.4" thickBot="1">
       <c r="A177" s="1" t="s">
         <v>942</v>
       </c>
@@ -16145,7 +16164,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="178" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:29" ht="19.2" thickBot="1">
       <c r="A178" s="1" t="s">
         <v>943</v>
       </c>
@@ -16178,7 +16197,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="179" spans="1:29" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:29" ht="63" thickBot="1">
       <c r="A179" s="1" t="s">
         <v>944</v>
       </c>
@@ -16220,7 +16239,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="180" spans="1:29" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:29" ht="47.4" thickBot="1">
       <c r="A180" s="1" t="s">
         <v>945</v>
       </c>
@@ -16253,7 +16272,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="181" spans="1:29" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:29" ht="47.4" thickBot="1">
       <c r="A181" s="1" t="s">
         <v>946</v>
       </c>
@@ -16286,7 +16305,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="182" spans="1:29" ht="37" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:29" ht="34.799999999999997" thickBot="1">
       <c r="A182" s="1" t="s">
         <v>947</v>
       </c>
@@ -16325,7 +16344,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="183" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:29" ht="19.2" thickBot="1">
       <c r="A183" s="1" t="s">
         <v>948</v>
       </c>
@@ -16358,7 +16377,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="184" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:29" ht="31.8" thickBot="1">
       <c r="A184" s="1" t="s">
         <v>949</v>
       </c>
@@ -16400,7 +16419,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="185" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:29" ht="19.2" thickBot="1">
       <c r="A185" s="1" t="s">
         <v>950</v>
       </c>
@@ -16433,7 +16452,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="186" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:29" ht="31.8" thickBot="1">
       <c r="A186" s="1" t="s">
         <v>951</v>
       </c>
@@ -16466,7 +16485,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="187" spans="1:29" ht="37" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:29" ht="34.799999999999997" thickBot="1">
       <c r="A187" s="1" t="s">
         <v>952</v>
       </c>
@@ -16502,7 +16521,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="188" spans="1:29" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:29" ht="409.6" thickBot="1">
       <c r="A188" s="1" t="s">
         <v>953</v>
       </c>
@@ -16547,7 +16566,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="189" spans="1:29" ht="54" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:29" ht="50.4" thickBot="1">
       <c r="A189" s="1" t="s">
         <v>954</v>
       </c>
@@ -16580,7 +16599,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="190" spans="1:29" ht="120" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:29" ht="109.8" thickBot="1">
       <c r="A190" s="1" t="s">
         <v>955</v>
       </c>
@@ -16613,7 +16632,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="191" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:29" ht="19.2" thickBot="1">
       <c r="A191" s="1" t="s">
         <v>956</v>
       </c>
@@ -16646,7 +16665,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="192" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:29" ht="19.2" thickBot="1">
       <c r="A192" s="1" t="s">
         <v>957</v>
       </c>
@@ -16682,7 +16701,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="193" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:29" ht="16.2" thickBot="1">
       <c r="A193" s="1" t="s">
         <v>958</v>
       </c>
@@ -16715,7 +16734,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="194" spans="1:29" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:29" ht="47.4" thickBot="1">
       <c r="A194" s="1" t="s">
         <v>959</v>
       </c>
@@ -16751,7 +16770,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="195" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:29" ht="19.2" thickBot="1">
       <c r="A195" s="1" t="s">
         <v>960</v>
       </c>
@@ -16781,7 +16800,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="196" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:29" ht="19.2" thickBot="1">
       <c r="A196" s="1" t="s">
         <v>961</v>
       </c>
@@ -16811,7 +16830,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="197" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:29" ht="16.2" thickBot="1">
       <c r="A197" s="1" t="s">
         <v>962</v>
       </c>
@@ -16847,7 +16866,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="198" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:29" ht="16.2" thickBot="1">
       <c r="A198" s="1" t="s">
         <v>963</v>
       </c>
@@ -16883,7 +16902,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="199" spans="1:29" ht="103" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:29" ht="94.2" thickBot="1">
       <c r="A199" s="1" t="s">
         <v>964</v>
       </c>
@@ -16919,7 +16938,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="200" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:29" ht="16.2" thickBot="1">
       <c r="A200" s="1" t="s">
         <v>965</v>
       </c>
@@ -16952,7 +16971,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="201" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:29" ht="31.8" thickBot="1">
       <c r="A201" s="1" t="s">
         <v>966</v>
       </c>
@@ -16985,7 +17004,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="202" spans="1:29" ht="103" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:29" ht="94.2" thickBot="1">
       <c r="A202" s="1" t="s">
         <v>967</v>
       </c>
@@ -17021,7 +17040,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="203" spans="1:29" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:29" ht="47.4" thickBot="1">
       <c r="A203" s="1" t="s">
         <v>968</v>
       </c>
@@ -17057,7 +17076,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="204" spans="1:29" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:29" ht="47.4" thickBot="1">
       <c r="A204" s="1" t="s">
         <v>969</v>
       </c>
@@ -17093,7 +17112,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="205" spans="1:29" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:29" ht="63" thickBot="1">
       <c r="A205" s="1" t="s">
         <v>970</v>
       </c>
@@ -17135,7 +17154,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="206" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:29" ht="16.2" thickBot="1">
       <c r="A206" s="1" t="s">
         <v>971</v>
       </c>
@@ -17171,7 +17190,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="207" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:29" ht="16.2" thickBot="1">
       <c r="A207" s="1" t="s">
         <v>972</v>
       </c>
@@ -17204,7 +17223,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="208" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:29" ht="16.2" thickBot="1">
       <c r="A208" s="1" t="s">
         <v>973</v>
       </c>
@@ -17237,7 +17256,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="209" spans="1:29" ht="86" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:29" ht="78.599999999999994" thickBot="1">
       <c r="A209" s="1" t="s">
         <v>974</v>
       </c>
@@ -17279,7 +17298,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="210" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:29" ht="19.2" thickBot="1">
       <c r="A210" s="1" t="s">
         <v>975</v>
       </c>
@@ -17315,7 +17334,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="211" spans="1:29" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:29" ht="78.599999999999994" thickBot="1">
       <c r="A211" s="1" t="s">
         <v>976</v>
       </c>
@@ -17345,7 +17364,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="212" spans="1:29" ht="37" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:29" ht="34.799999999999997" thickBot="1">
       <c r="A212" s="1" t="s">
         <v>977</v>
       </c>
@@ -17378,7 +17397,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="213" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:29" ht="16.2" thickBot="1">
       <c r="A213" s="1" t="s">
         <v>978</v>
       </c>
@@ -17414,7 +17433,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="214" spans="1:29" ht="361" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:29" ht="334.2" thickBot="1">
       <c r="A214" s="1" t="s">
         <v>979</v>
       </c>
@@ -17447,7 +17466,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="215" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:29" ht="19.2" thickBot="1">
       <c r="A215" s="1" t="s">
         <v>980</v>
       </c>
@@ -17483,7 +17502,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="216" spans="1:29" ht="37" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:29" ht="34.799999999999997" thickBot="1">
       <c r="A216" s="1" t="s">
         <v>981</v>
       </c>
@@ -17519,7 +17538,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="217" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:29" ht="19.2" thickBot="1">
       <c r="A217" s="1" t="s">
         <v>982</v>
       </c>
@@ -17552,7 +17571,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="218" spans="1:29" ht="120" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:29" ht="109.8" thickBot="1">
       <c r="A218" s="1" t="s">
         <v>983</v>
       </c>
@@ -17591,7 +17610,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="219" spans="1:29" ht="86" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:29" ht="78.599999999999994" thickBot="1">
       <c r="A219" s="1" t="s">
         <v>984</v>
       </c>
@@ -17624,7 +17643,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="220" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:29" ht="31.8" thickBot="1">
       <c r="A220" s="1" t="s">
         <v>985</v>
       </c>
@@ -17660,7 +17679,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="221" spans="1:29" ht="37" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:29" ht="34.799999999999997" thickBot="1">
       <c r="A221" s="1" t="s">
         <v>986</v>
       </c>
@@ -17693,7 +17712,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="222" spans="1:29" ht="137" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:29" ht="125.4" thickBot="1">
       <c r="A222" s="1" t="s">
         <v>987</v>
       </c>
@@ -17726,7 +17745,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="223" spans="1:29" ht="88" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:29" ht="81.599999999999994" thickBot="1">
       <c r="A223" s="1" t="s">
         <v>988</v>
       </c>
@@ -17762,7 +17781,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="224" spans="1:29" ht="124" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:29" ht="115.8" thickBot="1">
       <c r="A224" s="1" t="s">
         <v>989</v>
       </c>
@@ -17792,7 +17811,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="225" spans="1:29" ht="37" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:29" ht="34.799999999999997" thickBot="1">
       <c r="A225" s="1" t="s">
         <v>990</v>
       </c>
@@ -17828,7 +17847,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="226" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:29" ht="19.2" thickBot="1">
       <c r="A226" s="1" t="s">
         <v>991</v>
       </c>
@@ -17861,7 +17880,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="227" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:29" ht="31.8" thickBot="1">
       <c r="A227" s="1" t="s">
         <v>992</v>
       </c>
@@ -17894,7 +17913,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="228" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:29" ht="16.2" thickBot="1">
       <c r="A228" s="1" t="s">
         <v>993</v>
       </c>
@@ -17927,7 +17946,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="229" spans="1:29" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:29" ht="409.6" thickBot="1">
       <c r="A229" s="1" t="s">
         <v>994</v>
       </c>
@@ -17969,7 +17988,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="230" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:29" ht="31.8" thickBot="1">
       <c r="A230" s="1" t="s">
         <v>995</v>
       </c>
@@ -18008,7 +18027,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="231" spans="1:29" ht="103" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:29" ht="94.2" thickBot="1">
       <c r="A231" s="1" t="s">
         <v>996</v>
       </c>
@@ -18041,7 +18060,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="232" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:29" ht="31.8" thickBot="1">
       <c r="A232" s="1" t="s">
         <v>997</v>
       </c>
@@ -18074,7 +18093,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="233" spans="1:29" ht="86" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:29" ht="78.599999999999994" thickBot="1">
       <c r="A233" s="1" t="s">
         <v>998</v>
       </c>
@@ -18107,7 +18126,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="234" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:29" ht="31.8" thickBot="1">
       <c r="A234" s="1" t="s">
         <v>999</v>
       </c>
@@ -18140,7 +18159,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="235" spans="1:29" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:29" ht="47.4" thickBot="1">
       <c r="A235" s="1" t="s">
         <v>1000</v>
       </c>
@@ -18182,7 +18201,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="236" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:29" ht="16.2" thickBot="1">
       <c r="A236" s="1" t="s">
         <v>1001</v>
       </c>
@@ -18215,7 +18234,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="237" spans="1:29" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:29" ht="393.6" thickBot="1">
       <c r="A237" s="1" t="s">
         <v>1002</v>
       </c>
@@ -18257,7 +18276,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="238" spans="1:29" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:29" ht="47.4" thickBot="1">
       <c r="A238" s="1" t="s">
         <v>1003</v>
       </c>
@@ -18290,7 +18309,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="239" spans="1:29" ht="120" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:29" ht="109.8" thickBot="1">
       <c r="A239" s="1" t="s">
         <v>1004</v>
       </c>
@@ -18323,7 +18342,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="240" spans="1:29" ht="37" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:29" ht="34.799999999999997" thickBot="1">
       <c r="A240" s="1" t="s">
         <v>1005</v>
       </c>
@@ -18356,7 +18375,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="241" spans="1:16" ht="71" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:16" ht="66" thickBot="1">
       <c r="A241" s="1" t="s">
         <v>1006</v>
       </c>
@@ -18392,7 +18411,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="242" spans="1:16" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:16" ht="16.2" thickBot="1">
       <c r="A242" s="1" t="s">
         <v>1007</v>
       </c>
@@ -18425,7 +18444,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="243" spans="1:16" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:16" ht="47.4" thickBot="1">
       <c r="A243" s="1" t="s">
         <v>1008</v>
       </c>
@@ -18464,7 +18483,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="244" spans="1:16" ht="37" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:16" ht="34.799999999999997" thickBot="1">
       <c r="A244" s="1" t="s">
         <v>1009</v>
       </c>
@@ -18497,7 +18516,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="245" spans="1:16" ht="37" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:16" ht="34.799999999999997" thickBot="1">
       <c r="A245" s="1" t="s">
         <v>1010</v>
       </c>
@@ -18530,7 +18549,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="246" spans="1:16" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:16" ht="16.2" thickBot="1">
       <c r="A246" s="1" t="s">
         <v>1011</v>
       </c>
@@ -18566,7 +18585,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="247" spans="1:16" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:16" ht="47.4" thickBot="1">
       <c r="A247" s="1" t="s">
         <v>1012</v>
       </c>
@@ -18596,7 +18615,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="248" spans="1:16" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:16" ht="31.8" thickBot="1">
       <c r="A248" s="1" t="s">
         <v>1013</v>
       </c>
@@ -18632,7 +18651,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="249" spans="1:16" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:16" ht="31.8" thickBot="1">
       <c r="A249" s="1" t="s">
         <v>1014</v>
       </c>
@@ -18668,7 +18687,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="250" spans="1:16" ht="86" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:16" ht="78.599999999999994" thickBot="1">
       <c r="A250" s="1" t="s">
         <v>1015</v>
       </c>
@@ -18701,7 +18720,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="251" spans="1:16" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:16" ht="19.2" thickBot="1">
       <c r="A251" s="1" t="s">
         <v>1016</v>
       </c>
@@ -18734,7 +18753,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="252" spans="1:16" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:16" ht="31.8" thickBot="1">
       <c r="A252" s="1" t="s">
         <v>1017</v>
       </c>
@@ -18767,7 +18786,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="253" spans="1:16" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:16" ht="16.2" thickBot="1">
       <c r="A253" s="1" t="s">
         <v>1018</v>
       </c>
@@ -18803,7 +18822,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="254" spans="1:16" ht="54" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:16" ht="50.4" thickBot="1">
       <c r="A254" s="1" t="s">
         <v>1019</v>
       </c>
@@ -18842,7 +18861,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="255" spans="1:16" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:16" ht="47.4" thickBot="1">
       <c r="A255" s="1" t="s">
         <v>1020</v>
       </c>
@@ -18881,7 +18900,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="256" spans="1:16" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:16" ht="31.8" thickBot="1">
       <c r="A256" s="1" t="s">
         <v>1021</v>
       </c>
@@ -18914,7 +18933,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="257" spans="1:26" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:26" ht="31.8" thickBot="1">
       <c r="A257" s="1" t="s">
         <v>1022</v>
       </c>
@@ -18947,7 +18966,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="258" spans="1:26" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:26" ht="16.2" thickBot="1">
       <c r="A258" s="1" t="s">
         <v>1023</v>
       </c>
@@ -18980,7 +18999,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="259" spans="1:26" ht="37" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:26" ht="34.799999999999997" thickBot="1">
       <c r="A259" s="1" t="s">
         <v>1024</v>
       </c>
@@ -19013,7 +19032,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="260" spans="1:26" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:26" ht="16.2" thickBot="1">
       <c r="A260" s="1" t="s">
         <v>1025</v>
       </c>
@@ -19046,7 +19065,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="261" spans="1:26" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:26" ht="19.2" thickBot="1">
       <c r="A261" s="1" t="s">
         <v>1026</v>
       </c>
@@ -19082,7 +19101,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="262" spans="1:26" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:26" ht="390.6" thickBot="1">
       <c r="A262" s="1" t="s">
         <v>1027</v>
       </c>
@@ -19124,7 +19143,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="263" spans="1:26" ht="54" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:26" ht="50.4" thickBot="1">
       <c r="A263" s="1" t="s">
         <v>1028</v>
       </c>
@@ -19157,7 +19176,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="264" spans="1:26" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:26" ht="16.2" thickBot="1">
       <c r="A264" s="1" t="s">
         <v>1029</v>
       </c>
@@ -19190,7 +19209,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="265" spans="1:26" ht="103" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:26" ht="94.2" thickBot="1">
       <c r="A265" s="1" t="s">
         <v>1030</v>
       </c>
@@ -19223,7 +19242,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="266" spans="1:26" ht="37" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:26" ht="34.799999999999997" thickBot="1">
       <c r="A266" s="1" t="s">
         <v>1031</v>
       </c>
@@ -19256,7 +19275,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="267" spans="1:26" ht="54" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:26" ht="50.4" thickBot="1">
       <c r="A267" s="1" t="s">
         <v>1032</v>
       </c>
@@ -19289,7 +19308,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="268" spans="1:26" ht="54" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:26" ht="50.4" thickBot="1">
       <c r="A268" s="1" t="s">
         <v>1033</v>
       </c>
@@ -19322,7 +19341,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="269" spans="1:26" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:26" ht="31.8" thickBot="1">
       <c r="A269" s="1" t="s">
         <v>1034</v>
       </c>
@@ -19358,7 +19377,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="270" spans="1:26" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:26" ht="31.8" thickBot="1">
       <c r="A270" s="1" t="s">
         <v>1035</v>
       </c>
@@ -19394,7 +19413,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="271" spans="1:26" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:26" ht="31.8" thickBot="1">
       <c r="A271" s="1" t="s">
         <v>1036</v>
       </c>
@@ -19427,7 +19446,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="272" spans="1:26" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:26" ht="31.8" thickBot="1">
       <c r="A272" s="1" t="s">
         <v>1037</v>
       </c>
@@ -19463,7 +19482,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="273" spans="1:26" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:26" ht="31.8" thickBot="1">
       <c r="A273" s="1" t="s">
         <v>1038</v>
       </c>
@@ -19499,7 +19518,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="274" spans="1:26" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:26" ht="47.4" thickBot="1">
       <c r="A274" s="1" t="s">
         <v>1039</v>
       </c>
@@ -19532,7 +19551,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="275" spans="1:26" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:26" ht="47.4" thickBot="1">
       <c r="A275" s="1" t="s">
         <v>1040</v>
       </c>
@@ -19574,7 +19593,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="276" spans="1:26" ht="154" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:26" ht="141" thickBot="1">
       <c r="A276" s="1" t="s">
         <v>1041</v>
       </c>
@@ -19613,7 +19632,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="277" spans="1:26" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:26" ht="31.8" thickBot="1">
       <c r="A277" s="1" t="s">
         <v>1042</v>
       </c>
@@ -19649,7 +19668,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="278" spans="1:26" ht="205" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:26" ht="187.8" thickBot="1">
       <c r="A278" s="1" t="s">
         <v>1043</v>
       </c>
@@ -19691,7 +19710,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="279" spans="1:26" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:26" ht="19.2" thickBot="1">
       <c r="A279" s="1" t="s">
         <v>1044</v>
       </c>
@@ -19724,7 +19743,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="280" spans="1:26" ht="37" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:26" ht="34.799999999999997" thickBot="1">
       <c r="A280" s="1" t="s">
         <v>1045</v>
       </c>
@@ -19757,7 +19776,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="281" spans="1:26" ht="86" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:26" ht="78.599999999999994" thickBot="1">
       <c r="A281" s="1" t="s">
         <v>1046</v>
       </c>
@@ -19793,7 +19812,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="282" spans="1:26" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:26" ht="31.8" thickBot="1">
       <c r="A282" s="1" t="s">
         <v>1047</v>
       </c>
@@ -19826,7 +19845,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="283" spans="1:26" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:26" ht="31.8" thickBot="1">
       <c r="A283" s="1" t="s">
         <v>1048</v>
       </c>
@@ -19859,7 +19878,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="284" spans="1:26" ht="137" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:26" ht="125.4" thickBot="1">
       <c r="A284" s="1" t="s">
         <v>1049</v>
       </c>
@@ -19898,7 +19917,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="285" spans="1:26" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:26" ht="31.8" thickBot="1">
       <c r="A285" s="1" t="s">
         <v>1050</v>
       </c>
@@ -19931,7 +19950,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="286" spans="1:26" ht="86" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:26" ht="78.599999999999994" thickBot="1">
       <c r="A286" s="1" t="s">
         <v>1051</v>
       </c>
@@ -19973,7 +19992,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="287" spans="1:26" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:26" ht="31.8" thickBot="1">
       <c r="A287" s="1" t="s">
         <v>1052</v>
       </c>
@@ -20003,7 +20022,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="288" spans="1:26" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:26" ht="31.8" thickBot="1">
       <c r="A288" s="1" t="s">
         <v>1053</v>
       </c>
@@ -20042,7 +20061,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="289" spans="1:25" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:25" ht="16.2" thickBot="1">
       <c r="A289" s="1" t="s">
         <v>1054</v>
       </c>
@@ -20075,7 +20094,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="290" spans="1:25" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:25" ht="63" thickBot="1">
       <c r="A290" s="1" t="s">
         <v>1055</v>
       </c>
@@ -20108,7 +20127,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="291" spans="1:25" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:25" ht="19.2" thickBot="1">
       <c r="A291" s="1" t="s">
         <v>1056</v>
       </c>
@@ -20144,7 +20163,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="292" spans="1:25" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:25" ht="63" thickBot="1">
       <c r="A292" s="1" t="s">
         <v>1057</v>
       </c>
@@ -20174,7 +20193,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="293" spans="1:25" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:25" ht="63" thickBot="1">
       <c r="A293" s="1" t="s">
         <v>1057</v>
       </c>
@@ -20204,7 +20223,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="294" spans="1:25" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:25" ht="63" thickBot="1">
       <c r="A294" s="1" t="s">
         <v>1057</v>
       </c>
@@ -20234,7 +20253,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="295" spans="1:25" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:25" ht="31.8" thickBot="1">
       <c r="A295" s="1" t="s">
         <v>1058</v>
       </c>
@@ -20270,7 +20289,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="296" spans="1:25" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:25" ht="47.4" thickBot="1">
       <c r="A296" s="1" t="s">
         <v>1059</v>
       </c>
@@ -20303,7 +20322,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="297" spans="1:25" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:25" ht="31.8" thickBot="1">
       <c r="A297" s="1" t="s">
         <v>1060</v>
       </c>
@@ -20336,7 +20355,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="298" spans="1:25" ht="103" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:25" ht="94.2" thickBot="1">
       <c r="A298" s="1" t="s">
         <v>1061</v>
       </c>
@@ -20369,7 +20388,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="299" spans="1:25" ht="105" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:25" ht="97.2" thickBot="1">
       <c r="A299" s="1" t="s">
         <v>1062</v>
       </c>
@@ -20405,7 +20424,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="300" spans="1:25" ht="120" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:25" ht="109.8" thickBot="1">
       <c r="A300" s="1" t="s">
         <v>1063</v>
       </c>
@@ -20435,7 +20454,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="301" spans="1:25" ht="139" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:25" ht="128.4" thickBot="1">
       <c r="A301" s="1" t="s">
         <v>1064</v>
       </c>
@@ -20471,7 +20490,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="302" spans="1:25" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:25" ht="63" thickBot="1">
       <c r="A302" s="1" t="s">
         <v>1065</v>
       </c>
@@ -20504,7 +20523,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="303" spans="1:25" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:25" ht="19.2" thickBot="1">
       <c r="A303" s="1" t="s">
         <v>1066</v>
       </c>
@@ -20537,7 +20556,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="304" spans="1:25" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:25" ht="16.2" thickBot="1">
       <c r="A304" s="1" t="s">
         <v>1067</v>
       </c>
@@ -20570,7 +20589,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="305" spans="1:26" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:26" ht="31.8" thickBot="1">
       <c r="A305" s="1" t="s">
         <v>1068</v>
       </c>
@@ -20603,7 +20622,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="306" spans="1:26" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:26" ht="31.8" thickBot="1">
       <c r="A306" s="1" t="s">
         <v>1069</v>
       </c>
@@ -20639,7 +20658,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="307" spans="1:26" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:26" ht="31.8" thickBot="1">
       <c r="A307" s="1" t="s">
         <v>1070</v>
       </c>
@@ -20675,7 +20694,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="308" spans="1:26" ht="54" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:26" ht="50.4" thickBot="1">
       <c r="A308" s="1" t="s">
         <v>1071</v>
       </c>
@@ -20708,7 +20727,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="309" spans="1:26" ht="37" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:26" ht="34.799999999999997" thickBot="1">
       <c r="A309" s="1" t="s">
         <v>1072</v>
       </c>
@@ -20741,7 +20760,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="310" spans="1:26" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:26" ht="47.4" thickBot="1">
       <c r="A310" s="1" t="s">
         <v>1073</v>
       </c>
@@ -20771,7 +20790,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="311" spans="1:26" ht="258" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:26" ht="237.6" thickBot="1">
       <c r="A311" s="1" t="s">
         <v>1074</v>
       </c>
@@ -20810,7 +20829,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="312" spans="1:26" ht="71" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:26" ht="66" thickBot="1">
       <c r="A312" s="1" t="s">
         <v>1075</v>
       </c>
@@ -20843,7 +20862,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="313" spans="1:26" ht="205" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:26" ht="172.2" thickBot="1">
       <c r="A313" s="1" t="s">
         <v>1076</v>
       </c>
@@ -20876,7 +20895,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="314" spans="1:26" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:26" ht="16.2" thickBot="1">
       <c r="A314" s="1" t="s">
         <v>1077</v>
       </c>
@@ -20912,7 +20931,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="315" spans="1:26" ht="86" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:26" ht="78.599999999999994" thickBot="1">
       <c r="A315" s="1" t="s">
         <v>1078</v>
       </c>
@@ -20945,7 +20964,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="316" spans="1:26" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:26" ht="19.2" thickBot="1">
       <c r="A316" s="1" t="s">
         <v>1079</v>
       </c>
@@ -20978,7 +20997,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="317" spans="1:26" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:26" ht="31.8" thickBot="1">
       <c r="A317" s="1" t="s">
         <v>1080</v>
       </c>
@@ -21014,7 +21033,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="318" spans="1:26" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:26" ht="37.799999999999997" thickBot="1">
       <c r="A318" s="1" t="s">
         <v>1081</v>
       </c>
@@ -21047,7 +21066,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="319" spans="1:26" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:26" ht="16.2" thickBot="1">
       <c r="A319" s="1" t="s">
         <v>1082</v>
       </c>
@@ -21086,7 +21105,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="320" spans="1:26" ht="54" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:26" ht="50.4" thickBot="1">
       <c r="A320" s="1" t="s">
         <v>1083</v>
       </c>
@@ -21119,7 +21138,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="321" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:29" ht="16.2" thickBot="1">
       <c r="A321" s="1" t="s">
         <v>1084</v>
       </c>
@@ -21152,7 +21171,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="322" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:29" ht="31.8" thickBot="1">
       <c r="A322" s="1" t="s">
         <v>1085</v>
       </c>
@@ -21185,7 +21204,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="323" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:29" ht="31.8" thickBot="1">
       <c r="A323" s="1" t="s">
         <v>1086</v>
       </c>
@@ -21218,7 +21237,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="324" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:29" ht="16.2" thickBot="1">
       <c r="A324" s="1" t="s">
         <v>1087</v>
       </c>
@@ -21254,7 +21273,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="325" spans="1:29" ht="73" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:29" ht="69" thickBot="1">
       <c r="A325" s="1" t="s">
         <v>1088</v>
       </c>
@@ -21290,7 +21309,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="326" spans="1:29" ht="54" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:29" ht="50.4" thickBot="1">
       <c r="A326" s="1" t="s">
         <v>1089</v>
       </c>
@@ -21326,7 +21345,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="327" spans="1:29" ht="71" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:29" ht="66" thickBot="1">
       <c r="A327" s="1" t="s">
         <v>1090</v>
       </c>
@@ -21359,7 +21378,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="328" spans="1:29" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:29" ht="409.6" thickBot="1">
       <c r="A328" s="1" t="s">
         <v>1091</v>
       </c>
@@ -21392,7 +21411,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="329" spans="1:29" ht="103" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:29" ht="94.2" thickBot="1">
       <c r="A329" s="1" t="s">
         <v>1095</v>
       </c>
@@ -21422,7 +21441,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="330" spans="1:29" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:29" ht="63" thickBot="1">
       <c r="A330" s="1" t="s">
         <v>1096</v>
       </c>
@@ -21452,7 +21471,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="331" spans="1:29" ht="154" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:29" ht="141" thickBot="1">
       <c r="A331" s="1" t="s">
         <v>1097</v>
       </c>
@@ -21482,7 +21501,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="332" spans="1:29" ht="188" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:29" ht="172.2" thickBot="1">
       <c r="A332" s="1" t="s">
         <v>1098</v>
       </c>
@@ -21512,7 +21531,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="333" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:29" ht="31.8" thickBot="1">
       <c r="A333" s="1" t="s">
         <v>1099</v>
       </c>
@@ -21542,7 +21561,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="334" spans="1:29" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:29" ht="47.4" thickBot="1">
       <c r="A334" s="1" t="s">
         <v>1100</v>
       </c>
@@ -21572,7 +21591,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="335" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:29" ht="31.8" thickBot="1">
       <c r="A335" s="1" t="s">
         <v>1101</v>
       </c>
@@ -21602,7 +21621,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="336" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:29" ht="31.8" thickBot="1">
       <c r="A336" s="1" t="s">
         <v>1102</v>
       </c>
@@ -21632,7 +21651,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="337" spans="1:11" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" ht="31.8" thickBot="1">
       <c r="A337" s="1" t="s">
         <v>1103</v>
       </c>
@@ -21662,7 +21681,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="338" spans="1:11" ht="56" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" ht="53.4" thickBot="1">
       <c r="A338" s="1" t="s">
         <v>1104</v>
       </c>
@@ -21692,7 +21711,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="339" spans="1:11" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" ht="31.8" thickBot="1">
       <c r="A339" s="1" t="s">
         <v>1105</v>
       </c>
@@ -21722,7 +21741,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="340" spans="1:11" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" ht="31.8" thickBot="1">
       <c r="A340" s="1" t="s">
         <v>1106</v>
       </c>
@@ -21752,7 +21771,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="341" spans="1:11" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" ht="47.4" thickBot="1">
       <c r="A341" s="1" t="s">
         <v>1107</v>
       </c>
@@ -21782,7 +21801,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="342" spans="1:11" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" ht="31.8" thickBot="1">
       <c r="A342" s="1" t="s">
         <v>1108</v>
       </c>
@@ -21812,7 +21831,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="343" spans="1:11" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" ht="47.4" thickBot="1">
       <c r="A343" s="1" t="s">
         <v>1109</v>
       </c>
@@ -21842,7 +21861,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="344" spans="1:11" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" ht="63" thickBot="1">
       <c r="A344" s="1" t="s">
         <v>1110</v>
       </c>
@@ -21872,7 +21891,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="345" spans="1:11" ht="86" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" ht="78.599999999999994" thickBot="1">
       <c r="A345" s="1" t="s">
         <v>1111</v>
       </c>
@@ -21902,7 +21921,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="346" spans="1:11" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" ht="47.4" thickBot="1">
       <c r="A346" s="1" t="s">
         <v>1112</v>
       </c>
@@ -21932,7 +21951,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="347" spans="1:11" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" ht="31.8" thickBot="1">
       <c r="A347" s="1" t="s">
         <v>1113</v>
       </c>
@@ -21962,7 +21981,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="348" spans="1:11" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" ht="31.8" thickBot="1">
       <c r="A348" s="1" t="s">
         <v>1114</v>
       </c>
@@ -21992,7 +22011,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="349" spans="1:11" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" ht="31.8" thickBot="1">
       <c r="A349" s="1" t="s">
         <v>1114</v>
       </c>
@@ -22022,7 +22041,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="350" spans="1:11" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" ht="31.8" thickBot="1">
       <c r="A350" s="1" t="s">
         <v>1114</v>
       </c>
@@ -22052,7 +22071,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="351" spans="1:11" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" ht="31.8" thickBot="1">
       <c r="A351" s="1" t="s">
         <v>1114</v>
       </c>
@@ -22082,7 +22101,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="352" spans="1:11" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" ht="31.8" thickBot="1">
       <c r="A352" s="1" t="s">
         <v>1115</v>
       </c>
@@ -22112,7 +22131,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="353" spans="1:16" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:16" ht="47.4" thickBot="1">
       <c r="A353" s="1" t="s">
         <v>1116</v>
       </c>
@@ -22142,7 +22161,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="354" spans="1:16" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:16" ht="31.8" thickBot="1">
       <c r="A354" s="1" t="s">
         <v>1117</v>
       </c>
@@ -22172,7 +22191,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="355" spans="1:16" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:16" ht="47.4" thickBot="1">
       <c r="A355" s="1" t="s">
         <v>1118</v>
       </c>
@@ -22202,7 +22221,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="356" spans="1:16" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:16" ht="47.4" thickBot="1">
       <c r="A356" s="1" t="s">
         <v>1118</v>
       </c>
@@ -22232,7 +22251,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="357" spans="1:16" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:16" ht="47.4" thickBot="1">
       <c r="A357" s="1" t="s">
         <v>1118</v>
       </c>
@@ -22262,7 +22281,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="358" spans="1:16" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:16" ht="47.4" thickBot="1">
       <c r="A358" s="1" t="s">
         <v>1118</v>
       </c>
@@ -22292,7 +22311,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="359" spans="1:16" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:16" ht="409.6" thickBot="1">
       <c r="A359" s="1" t="s">
         <v>1119</v>
       </c>
@@ -22322,7 +22341,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="360" spans="1:16" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:16" ht="47.4" thickBot="1">
       <c r="A360" s="14" t="s">
         <v>1092</v>
       </c>
@@ -22355,7 +22374,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="361" spans="1:16" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:16" ht="63" thickBot="1">
       <c r="A361" s="14" t="s">
         <v>1093</v>
       </c>
@@ -22388,7 +22407,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="362" spans="1:16" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:16" ht="47.4" thickBot="1">
       <c r="A362" s="14" t="s">
         <v>1094</v>
       </c>
@@ -22421,7 +22440,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="363" spans="1:16" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:16" ht="47.4" thickBot="1">
       <c r="A363" s="14" t="s">
         <v>1120</v>
       </c>
@@ -22454,7 +22473,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="364" spans="1:16" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:16" ht="47.4" thickBot="1">
       <c r="A364" s="14" t="s">
         <v>1121</v>
       </c>
@@ -22487,7 +22506,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="365" spans="1:16" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:16" ht="47.4" thickBot="1">
       <c r="A365" s="14" t="s">
         <v>1122</v>
       </c>
@@ -22520,7 +22539,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="366" spans="1:16" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:16" ht="47.4" thickBot="1">
       <c r="A366" s="14" t="s">
         <v>1123</v>
       </c>
@@ -22553,7 +22572,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="367" spans="1:16" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:16" ht="47.4" thickBot="1">
       <c r="A367" s="14" t="s">
         <v>1124</v>
       </c>
@@ -22586,7 +22605,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="368" spans="1:16" ht="88" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:16" ht="81.599999999999994" thickBot="1">
       <c r="A368" s="14" t="s">
         <v>1125</v>
       </c>
@@ -22619,7 +22638,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="369" spans="1:25" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:25" ht="16.2" thickBot="1">
       <c r="A369" s="14" t="s">
         <v>1126</v>
       </c>
@@ -22655,7 +22674,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="370" spans="1:25" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:25" ht="16.2" thickBot="1">
       <c r="A370" s="14" t="s">
         <v>1127</v>
       </c>
@@ -22685,7 +22704,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="371" spans="1:25" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:25" ht="19.2" thickBot="1">
       <c r="A371" s="14" t="s">
         <v>1128</v>
       </c>
@@ -22718,7 +22737,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="372" spans="1:25" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:25" ht="19.2" thickBot="1">
       <c r="A372" s="14" t="s">
         <v>1129</v>
       </c>
@@ -22751,7 +22770,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="373" spans="1:25" ht="37" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:25" ht="34.799999999999997" thickBot="1">
       <c r="A373" s="14" t="s">
         <v>1130</v>
       </c>
@@ -22784,7 +22803,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="374" spans="1:25" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:25" ht="63" thickBot="1">
       <c r="A374" s="14" t="s">
         <v>1131</v>
       </c>
@@ -22817,7 +22836,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="375" spans="1:25" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:25" ht="16.2" thickBot="1">
       <c r="A375" s="14" t="s">
         <v>1132</v>
       </c>
@@ -22850,7 +22869,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="376" spans="1:25" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:25" ht="31.8" thickBot="1">
       <c r="A376" s="14" t="s">
         <v>1133</v>
       </c>
@@ -22883,7 +22902,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="377" spans="1:25" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:25" ht="31.8" thickBot="1">
       <c r="A377" s="14" t="s">
         <v>1134</v>
       </c>
@@ -22916,7 +22935,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="378" spans="1:25" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:25" ht="47.4" thickBot="1">
       <c r="A378" s="14" t="s">
         <v>1135</v>
       </c>
@@ -22949,7 +22968,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="379" spans="1:25" ht="122" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:25" ht="112.8" thickBot="1">
       <c r="A379" s="14" t="s">
         <v>1136</v>
       </c>
@@ -22985,7 +23004,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="380" spans="1:25" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:25" ht="37.799999999999997" thickBot="1">
       <c r="A380" s="14" t="s">
         <v>1137</v>
       </c>
@@ -23018,7 +23037,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="381" spans="1:25" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:25" ht="47.4" thickBot="1">
       <c r="A381" s="14" t="s">
         <v>1138</v>
       </c>
@@ -23051,7 +23070,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="382" spans="1:25" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:25" ht="19.2" thickBot="1">
       <c r="A382" s="14" t="s">
         <v>1139</v>
       </c>
@@ -23084,7 +23103,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="383" spans="1:25" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:25" ht="16.2" thickBot="1">
       <c r="A383" s="14" t="s">
         <v>1140</v>
       </c>
@@ -23117,7 +23136,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="384" spans="1:25" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:25" ht="31.8" thickBot="1">
       <c r="A384" s="14" t="s">
         <v>1141</v>
       </c>
@@ -23150,7 +23169,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="385" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:29" ht="16.2" thickBot="1">
       <c r="A385" s="14" t="s">
         <v>1142</v>
       </c>
@@ -23183,7 +23202,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="386" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:29" ht="16.2" thickBot="1">
       <c r="A386" s="14" t="s">
         <v>1143</v>
       </c>
@@ -23216,7 +23235,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="387" spans="1:29" ht="120" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:29" ht="109.8" thickBot="1">
       <c r="A387" s="14" t="s">
         <v>1144</v>
       </c>
@@ -23249,7 +23268,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="388" spans="1:29" ht="71" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:29" ht="66" thickBot="1">
       <c r="A388" s="14" t="s">
         <v>1145</v>
       </c>
@@ -23282,7 +23301,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="389" spans="1:29" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:29" ht="47.4" thickBot="1">
       <c r="A389" s="14" t="s">
         <v>1146</v>
       </c>
@@ -23315,7 +23334,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="390" spans="1:29" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:29" ht="63" thickBot="1">
       <c r="A390" s="14" t="s">
         <v>1147</v>
       </c>
@@ -23351,7 +23370,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="391" spans="1:29" ht="137" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:29" ht="125.4" thickBot="1">
       <c r="A391" s="14" t="s">
         <v>1148</v>
       </c>
@@ -23384,7 +23403,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="392" spans="1:29" ht="137" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:29" ht="125.4" thickBot="1">
       <c r="A392" s="14" t="s">
         <v>1149</v>
       </c>
@@ -23417,7 +23436,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="393" spans="1:29" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:29" ht="47.4" thickBot="1">
       <c r="A393" s="14" t="s">
         <v>1150</v>
       </c>
@@ -23450,7 +23469,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="394" spans="1:29" ht="205" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:29" ht="187.8" thickBot="1">
       <c r="A394" s="14" t="s">
         <v>1151</v>
       </c>
@@ -23483,7 +23502,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="395" spans="1:29" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:29" ht="47.4" thickBot="1">
       <c r="A395" s="14" t="s">
         <v>1152</v>
       </c>
@@ -23516,7 +23535,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="396" spans="1:29" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:29" ht="47.4" thickBot="1">
       <c r="A396" s="14" t="s">
         <v>1153</v>
       </c>
@@ -23549,7 +23568,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="397" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:29" ht="19.2" thickBot="1">
       <c r="A397" s="14" t="s">
         <v>1154</v>
       </c>
@@ -23585,7 +23604,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="398" spans="1:29" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:29" ht="47.4" thickBot="1">
       <c r="A398" s="14" t="s">
         <v>1155</v>
       </c>
@@ -23618,7 +23637,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="399" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:29" ht="31.8" thickBot="1">
       <c r="A399" s="14" t="s">
         <v>1156</v>
       </c>
@@ -23651,7 +23670,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="400" spans="1:29" ht="88" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:29" ht="81.599999999999994" thickBot="1">
       <c r="A400" s="14" t="s">
         <v>1157</v>
       </c>
@@ -23684,7 +23703,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="401" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:29" ht="19.2" thickBot="1">
       <c r="A401" s="14" t="s">
         <v>1158</v>
       </c>
@@ -23717,7 +23736,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="402" spans="1:29" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:29" ht="47.4" thickBot="1">
       <c r="A402" s="14" t="s">
         <v>1159</v>
       </c>
@@ -23753,7 +23772,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="403" spans="1:29" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:29" ht="409.6" thickBot="1">
       <c r="A403" s="14" t="s">
         <v>1160</v>
       </c>
@@ -23792,7 +23811,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="404" spans="1:29" ht="37" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:29" ht="34.799999999999997" thickBot="1">
       <c r="A404" s="14" t="s">
         <v>1161</v>
       </c>
@@ -23825,7 +23844,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="405" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:29" ht="16.2" thickBot="1">
       <c r="A405" s="14" t="s">
         <v>1162</v>
       </c>
@@ -23858,7 +23877,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="406" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:29" ht="16.2" thickBot="1">
       <c r="A406" s="14" t="s">
         <v>1163</v>
       </c>
@@ -23891,7 +23910,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="407" spans="1:29" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:29" ht="63" thickBot="1">
       <c r="A407" s="14" t="s">
         <v>1164</v>
       </c>
@@ -23927,7 +23946,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="408" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:29" ht="19.2" thickBot="1">
       <c r="A408" s="14" t="s">
         <v>1165</v>
       </c>
@@ -23960,7 +23979,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="409" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:29" ht="31.8" thickBot="1">
       <c r="A409" s="14" t="s">
         <v>1166</v>
       </c>
@@ -23993,7 +24012,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="410" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:29" ht="19.2" thickBot="1">
       <c r="A410" s="14" t="s">
         <v>1167</v>
       </c>
@@ -24026,7 +24045,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="411" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:29" ht="16.2" thickBot="1">
       <c r="A411" s="14" t="s">
         <v>1168</v>
       </c>
@@ -24059,7 +24078,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="412" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:29" ht="16.2" thickBot="1">
       <c r="A412" s="14" t="s">
         <v>1169</v>
       </c>
@@ -24092,7 +24111,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="413" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:29" ht="16.2" thickBot="1">
       <c r="A413" s="14" t="s">
         <v>1170</v>
       </c>
@@ -24125,7 +24144,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="414" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:29" ht="16.2" thickBot="1">
       <c r="A414" s="14" t="s">
         <v>1171</v>
       </c>
@@ -24158,7 +24177,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="415" spans="1:29" s="12" customFormat="1" ht="173" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:29" s="12" customFormat="1" ht="159.6" thickBot="1">
       <c r="A415" s="14" t="s">
         <v>1172</v>
       </c>
@@ -24197,7 +24216,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="416" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:29" ht="19.2" thickBot="1">
       <c r="A416" s="14" t="s">
         <v>1173</v>
       </c>
@@ -24230,7 +24249,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="417" spans="1:21" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:21" ht="19.2" thickBot="1">
       <c r="A417" s="14" t="s">
         <v>1174</v>
       </c>
@@ -24263,7 +24282,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="418" spans="1:21" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:21" ht="31.8" thickBot="1">
       <c r="A418" s="14" t="s">
         <v>1175</v>
       </c>
@@ -24296,7 +24315,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="419" spans="1:21" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:21" ht="63" thickBot="1">
       <c r="A419" s="14" t="s">
         <v>1176</v>
       </c>
@@ -24329,7 +24348,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="420" spans="1:21" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:21" ht="19.2" thickBot="1">
       <c r="A420" s="14" t="s">
         <v>1177</v>
       </c>
@@ -24362,7 +24381,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="421" spans="1:21" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:21" ht="19.2" thickBot="1">
       <c r="A421" s="14" t="s">
         <v>1178</v>
       </c>
@@ -24395,7 +24414,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="422" spans="1:21" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:21" ht="31.8" thickBot="1">
       <c r="A422" s="14" t="s">
         <v>1179</v>
       </c>
@@ -24431,7 +24450,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="423" spans="1:21" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:21" ht="19.2" thickBot="1">
       <c r="A423" s="14" t="s">
         <v>1180</v>
       </c>
@@ -24467,7 +24486,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="424" spans="1:21" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:21" ht="63" thickBot="1">
       <c r="A424" s="14" t="s">
         <v>1181</v>
       </c>
@@ -24500,7 +24519,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="425" spans="1:21" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:21" ht="19.2" thickBot="1">
       <c r="A425" s="14" t="s">
         <v>1182</v>
       </c>
@@ -24533,7 +24552,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="426" spans="1:21" ht="54" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:21" ht="50.4" thickBot="1">
       <c r="A426" s="14" t="s">
         <v>1183</v>
       </c>
@@ -24566,7 +24585,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="427" spans="1:21" ht="54" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:21" ht="50.4" thickBot="1">
       <c r="A427" s="14" t="s">
         <v>1184</v>
       </c>
@@ -24599,7 +24618,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="428" spans="1:21" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:21" ht="31.8" thickBot="1">
       <c r="A428" s="14" t="s">
         <v>1185</v>
       </c>
@@ -24632,7 +24651,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="429" spans="1:21" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:21" ht="63" thickBot="1">
       <c r="A429" s="14" t="s">
         <v>1186</v>
       </c>
@@ -24665,7 +24684,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="430" spans="1:21" ht="103" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:21" ht="94.2" thickBot="1">
       <c r="A430" s="14" t="s">
         <v>1187</v>
       </c>
@@ -24698,7 +24717,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="431" spans="1:21" ht="37" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:21" ht="34.799999999999997" thickBot="1">
       <c r="A431" s="14" t="s">
         <v>1188</v>
       </c>
@@ -24731,7 +24750,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="432" spans="1:21" ht="37" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:21" ht="34.799999999999997" thickBot="1">
       <c r="A432" s="14" t="s">
         <v>1189</v>
       </c>
@@ -24767,7 +24786,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="433" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:29" ht="31.8" thickBot="1">
       <c r="A433" s="14" t="s">
         <v>1190</v>
       </c>
@@ -24800,7 +24819,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="434" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:29" ht="31.8" thickBot="1">
       <c r="A434" s="14" t="s">
         <v>1191</v>
       </c>
@@ -24836,7 +24855,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="435" spans="1:29" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:29" ht="47.4" thickBot="1">
       <c r="A435" s="14" t="s">
         <v>1192</v>
       </c>
@@ -24872,7 +24891,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="436" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:29" ht="16.2" thickBot="1">
       <c r="A436" s="14" t="s">
         <v>1193</v>
       </c>
@@ -24905,7 +24924,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="437" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:29" ht="16.2" thickBot="1">
       <c r="A437" s="14" t="s">
         <v>1194</v>
       </c>
@@ -24938,7 +24957,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="438" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:29" ht="31.8" thickBot="1">
       <c r="A438" s="14" t="s">
         <v>1195</v>
       </c>
@@ -24974,7 +24993,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="439" spans="1:29" ht="222" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:29" ht="203.4" thickBot="1">
       <c r="A439" s="14" t="s">
         <v>1196</v>
       </c>
@@ -25016,7 +25035,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="440" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:29" ht="16.2" thickBot="1">
       <c r="A440" s="14" t="s">
         <v>1197</v>
       </c>
@@ -25049,7 +25068,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="441" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:29" ht="16.2" thickBot="1">
       <c r="A441" s="14" t="s">
         <v>1198</v>
       </c>
@@ -25082,7 +25101,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="442" spans="1:29" ht="86" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:29" ht="78.599999999999994" thickBot="1">
       <c r="A442" s="14" t="s">
         <v>1199</v>
       </c>
@@ -25118,7 +25137,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="443" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:29" ht="16.2" thickBot="1">
       <c r="A443" s="14" t="s">
         <v>1200</v>
       </c>
@@ -25151,7 +25170,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="444" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:29" ht="16.2" thickBot="1">
       <c r="A444" s="14" t="s">
         <v>1201</v>
       </c>
@@ -25184,7 +25203,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="445" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:29" ht="16.2" thickBot="1">
       <c r="A445" s="14" t="s">
         <v>1202</v>
       </c>
@@ -25217,7 +25236,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="446" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:29" ht="31.8" thickBot="1">
       <c r="A446" s="14" t="s">
         <v>1203</v>
       </c>
@@ -25250,7 +25269,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="447" spans="1:29" ht="37" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:29" ht="34.799999999999997" thickBot="1">
       <c r="A447" s="14" t="s">
         <v>1204</v>
       </c>
@@ -25286,7 +25305,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="448" spans="1:29" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:29" ht="47.4" thickBot="1">
       <c r="A448" s="14" t="s">
         <v>1205</v>
       </c>
@@ -25319,7 +25338,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="449" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:29" ht="31.8" thickBot="1">
       <c r="A449" s="14" t="s">
         <v>1206</v>
       </c>
@@ -25352,7 +25371,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="450" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:29" ht="16.2" thickBot="1">
       <c r="A450" s="14" t="s">
         <v>1207</v>
       </c>
@@ -25385,7 +25404,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="451" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:29" ht="16.2" thickBot="1">
       <c r="A451" s="14" t="s">
         <v>1207</v>
       </c>
@@ -25418,7 +25437,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="452" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:29" ht="31.8" thickBot="1">
       <c r="A452" s="14" t="s">
         <v>1208</v>
       </c>
@@ -25451,7 +25470,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="453" spans="1:29" ht="37" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:29" ht="34.799999999999997" thickBot="1">
       <c r="A453" s="14" t="s">
         <v>1209</v>
       </c>
@@ -25484,7 +25503,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="454" spans="1:29" ht="137" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:29" ht="125.4" thickBot="1">
       <c r="A454" s="14" t="s">
         <v>1210</v>
       </c>
@@ -25523,7 +25542,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="455" spans="1:29" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:29" ht="409.6" thickBot="1">
       <c r="A455" s="14" t="s">
         <v>1211</v>
       </c>
@@ -25574,7 +25593,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="456" spans="1:29" ht="37" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:29" ht="34.799999999999997" thickBot="1">
       <c r="A456" s="14" t="s">
         <v>1212</v>
       </c>
@@ -25604,7 +25623,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="457" spans="1:29" ht="37" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:29" ht="34.799999999999997" thickBot="1">
       <c r="A457" s="14" t="s">
         <v>1213</v>
       </c>
@@ -25634,7 +25653,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="458" spans="1:29" ht="37" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:29" ht="34.799999999999997" thickBot="1">
       <c r="A458" s="14" t="s">
         <v>1214</v>
       </c>
@@ -25664,7 +25683,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="459" spans="1:29" ht="37" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:29" ht="34.799999999999997" thickBot="1">
       <c r="A459" s="14" t="s">
         <v>1215</v>
       </c>
@@ -25694,7 +25713,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="460" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:29" ht="19.2" thickBot="1">
       <c r="A460" s="14" t="s">
         <v>1216</v>
       </c>
@@ -25724,7 +25743,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="461" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:29" ht="31.8" thickBot="1">
       <c r="A461" s="14" t="s">
         <v>1217</v>
       </c>
@@ -25757,7 +25776,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="462" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:29" ht="31.8" thickBot="1">
       <c r="A462" s="14" t="s">
         <v>1218</v>
       </c>
@@ -25793,7 +25812,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="463" spans="1:29" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:29" ht="63" thickBot="1">
       <c r="A463" s="14" t="s">
         <v>1219</v>
       </c>
@@ -25835,7 +25854,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="464" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:29" ht="19.2" thickBot="1">
       <c r="A464" s="14" t="s">
         <v>1220</v>
       </c>
@@ -25871,7 +25890,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="465" spans="1:25" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:25" ht="19.2" thickBot="1">
       <c r="A465" s="14" t="s">
         <v>1221</v>
       </c>
@@ -25907,7 +25926,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="466" spans="1:25" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:25" ht="16.2" thickBot="1">
       <c r="A466" s="14" t="s">
         <v>1222</v>
       </c>
@@ -25940,7 +25959,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="467" spans="1:25" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:25" ht="31.8" thickBot="1">
       <c r="A467" s="14" t="s">
         <v>1223</v>
       </c>
@@ -25976,7 +25995,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="468" spans="1:25" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:25" ht="16.2" thickBot="1">
       <c r="A468" s="14" t="s">
         <v>1224</v>
       </c>
@@ -26015,7 +26034,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="469" spans="1:25" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:25" ht="19.2" thickBot="1">
       <c r="A469" s="14" t="s">
         <v>1225</v>
       </c>
@@ -26051,7 +26070,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="470" spans="1:25" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:25" ht="19.2" thickBot="1">
       <c r="A470" s="14" t="s">
         <v>1226</v>
       </c>
@@ -26087,7 +26106,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="471" spans="1:25" ht="86" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:25" ht="78.599999999999994" thickBot="1">
       <c r="A471" s="14" t="s">
         <v>1227</v>
       </c>
@@ -26120,7 +26139,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="472" spans="1:25" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:25" ht="19.2" thickBot="1">
       <c r="A472" s="14" t="s">
         <v>1228</v>
       </c>
@@ -26153,7 +26172,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="473" spans="1:25" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:25" ht="19.2" thickBot="1">
       <c r="A473" s="14" t="s">
         <v>1229</v>
       </c>
@@ -26186,7 +26205,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="474" spans="1:25" ht="37" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:25" ht="34.799999999999997" thickBot="1">
       <c r="A474" s="14" t="s">
         <v>1230</v>
       </c>
@@ -26219,7 +26238,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="475" spans="1:25" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:25" ht="63" thickBot="1">
       <c r="A475" s="14" t="s">
         <v>1231</v>
       </c>
@@ -26252,7 +26271,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="476" spans="1:25" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:25" ht="16.2" thickBot="1">
       <c r="A476" s="14" t="s">
         <v>1232</v>
       </c>
@@ -26288,7 +26307,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="477" spans="1:25" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:25" ht="31.8" thickBot="1">
       <c r="A477" s="14" t="s">
         <v>1233</v>
       </c>
@@ -26324,7 +26343,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="478" spans="1:25" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:25" ht="31.8" thickBot="1">
       <c r="A478" s="14" t="s">
         <v>1234</v>
       </c>
@@ -26360,7 +26379,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="479" spans="1:25" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:25" ht="31.8" thickBot="1">
       <c r="A479" s="14" t="s">
         <v>1235</v>
       </c>
@@ -26396,7 +26415,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="480" spans="1:25" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:25" ht="31.8" thickBot="1">
       <c r="A480" s="14" t="s">
         <v>1236</v>
       </c>
@@ -26432,7 +26451,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="481" spans="1:26" ht="120" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:26" ht="109.8" thickBot="1">
       <c r="A481" s="14" t="s">
         <v>1237</v>
       </c>
@@ -26465,7 +26484,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="482" spans="1:26" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:26" ht="19.2" thickBot="1">
       <c r="A482" s="14" t="s">
         <v>1238</v>
       </c>
@@ -26498,7 +26517,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="483" spans="1:26" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:26" ht="19.2" thickBot="1">
       <c r="A483" s="14" t="s">
         <v>1239</v>
       </c>
@@ -26531,7 +26550,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="484" spans="1:26" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:26" ht="16.2" thickBot="1">
       <c r="A484" s="14" t="s">
         <v>1240</v>
       </c>
@@ -26564,7 +26583,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="485" spans="1:26" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:26" ht="63" thickBot="1">
       <c r="A485" s="14" t="s">
         <v>1241</v>
       </c>
@@ -26609,7 +26628,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="486" spans="1:26" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:26" ht="16.2" thickBot="1">
       <c r="A486" s="14" t="s">
         <v>1242</v>
       </c>
@@ -26642,7 +26661,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="487" spans="1:26" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:26" ht="16.2" thickBot="1">
       <c r="A487" s="14" t="s">
         <v>1243</v>
       </c>
@@ -26675,7 +26694,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="488" spans="1:26" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:26" ht="16.2" thickBot="1">
       <c r="A488" s="14" t="s">
         <v>1244</v>
       </c>
@@ -26708,7 +26727,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="489" spans="1:26" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:26" ht="16.2" thickBot="1">
       <c r="A489" s="14" t="s">
         <v>1245</v>
       </c>
@@ -26741,7 +26760,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="490" spans="1:26" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:26" ht="31.8" thickBot="1">
       <c r="A490" s="14" t="s">
         <v>1246</v>
       </c>
@@ -26777,7 +26796,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="491" spans="1:26" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:26" ht="31.8" thickBot="1">
       <c r="A491" s="14" t="s">
         <v>1247</v>
       </c>
@@ -26813,7 +26832,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="492" spans="1:26" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:26" ht="47.4" thickBot="1">
       <c r="A492" s="14" t="s">
         <v>1248</v>
       </c>
@@ -26849,7 +26868,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="493" spans="1:26" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:26" ht="31.8" thickBot="1">
       <c r="A493" s="14" t="s">
         <v>1249</v>
       </c>
@@ -26885,7 +26904,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="494" spans="1:26" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:26" ht="31.8" thickBot="1">
       <c r="A494" s="14" t="s">
         <v>1250</v>
       </c>
@@ -26921,7 +26940,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="495" spans="1:26" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:26" ht="63" thickBot="1">
       <c r="A495" s="14" t="s">
         <v>1251</v>
       </c>
@@ -26957,7 +26976,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="496" spans="1:26" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:26" ht="409.6" thickBot="1">
       <c r="A496" s="14" t="s">
         <v>1252</v>
       </c>
@@ -27002,7 +27021,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="497" spans="1:26" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:26" ht="16.2" thickBot="1">
       <c r="A497" s="14" t="s">
         <v>1253</v>
       </c>
@@ -27038,7 +27057,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="498" spans="1:26" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:26" ht="31.8" thickBot="1">
       <c r="A498" s="14" t="s">
         <v>1254</v>
       </c>
@@ -27071,7 +27090,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="499" spans="1:26" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:26" ht="16.2" thickBot="1">
       <c r="A499" s="14" t="s">
         <v>1255</v>
       </c>
@@ -27104,7 +27123,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="500" spans="1:26" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:26" ht="63" thickBot="1">
       <c r="A500" s="14" t="s">
         <v>1256</v>
       </c>
@@ -27143,7 +27162,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="501" spans="1:26" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:26" ht="31.8" thickBot="1">
       <c r="A501" s="14" t="s">
         <v>1257</v>
       </c>
@@ -27176,7 +27195,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="502" spans="1:26" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:26" ht="63" thickBot="1">
       <c r="A502" s="14" t="s">
         <v>1258</v>
       </c>
@@ -27215,7 +27234,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="503" spans="1:26" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:26" ht="31.8" thickBot="1">
       <c r="A503" s="14" t="s">
         <v>1259</v>
       </c>
@@ -27254,7 +27273,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="504" spans="1:26" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:26" ht="63" thickBot="1">
       <c r="A504" s="14" t="s">
         <v>1260</v>
       </c>
@@ -27290,7 +27309,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="505" spans="1:26" ht="103" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:26" ht="94.2" thickBot="1">
       <c r="A505" s="14" t="s">
         <v>1261</v>
       </c>
@@ -27326,7 +27345,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="506" spans="1:26" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:26" ht="47.4" thickBot="1">
       <c r="A506" s="14" t="s">
         <v>1262</v>
       </c>
@@ -27368,7 +27387,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="507" spans="1:26" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:26" ht="31.8" thickBot="1">
       <c r="A507" s="14" t="s">
         <v>1263</v>
       </c>
@@ -27404,7 +27423,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="508" spans="1:26" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:26" ht="19.2" thickBot="1">
       <c r="A508" s="14" t="s">
         <v>1264</v>
       </c>
@@ -27437,7 +27456,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="509" spans="1:26" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:26" ht="63" thickBot="1">
       <c r="A509" s="14" t="s">
         <v>1265</v>
       </c>
@@ -27476,7 +27495,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="510" spans="1:26" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:26" ht="31.8" thickBot="1">
       <c r="A510" s="14" t="s">
         <v>1266</v>
       </c>
@@ -27509,7 +27528,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="511" spans="1:26" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:26" ht="31.8" thickBot="1">
       <c r="A511" s="14" t="s">
         <v>1267</v>
       </c>
@@ -27542,7 +27561,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="512" spans="1:26" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:26" ht="31.8" thickBot="1">
       <c r="A512" s="14" t="s">
         <v>1268</v>
       </c>
@@ -27578,7 +27597,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="513" spans="1:26" ht="139" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:26" ht="128.4" thickBot="1">
       <c r="A513" s="14" t="s">
         <v>1269</v>
       </c>
@@ -27623,7 +27642,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="514" spans="1:26" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:26" ht="63" thickBot="1">
       <c r="A514" s="14" t="s">
         <v>1270</v>
       </c>
@@ -27656,7 +27675,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="515" spans="1:26" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:26" ht="63" thickBot="1">
       <c r="A515" s="14" t="s">
         <v>1271</v>
       </c>
@@ -27689,7 +27708,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="516" spans="1:26" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:26" ht="63" thickBot="1">
       <c r="A516" s="14" t="s">
         <v>1272</v>
       </c>
@@ -27722,7 +27741,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="517" spans="1:26" ht="256" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:26" ht="234.6" thickBot="1">
       <c r="A517" s="14" t="s">
         <v>1273</v>
       </c>
@@ -27761,7 +27780,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="518" spans="1:26" ht="103" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:26" ht="94.2" thickBot="1">
       <c r="A518" s="14" t="s">
         <v>1274</v>
       </c>
@@ -27800,7 +27819,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="519" spans="1:26" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:26" ht="47.4" thickBot="1">
       <c r="A519" s="14" t="s">
         <v>1275</v>
       </c>
@@ -27833,7 +27852,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="520" spans="1:26" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:26" ht="63" thickBot="1">
       <c r="A520" s="14" t="s">
         <v>1276</v>
       </c>
@@ -27866,7 +27885,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="521" spans="1:26" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:26" ht="63" thickBot="1">
       <c r="A521" s="14" t="s">
         <v>1277</v>
       </c>
@@ -27899,7 +27918,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="522" spans="1:26" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:26" ht="63" thickBot="1">
       <c r="A522" s="14" t="s">
         <v>1278</v>
       </c>
@@ -27932,7 +27951,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="523" spans="1:26" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:26" ht="63" thickBot="1">
       <c r="A523" s="14" t="s">
         <v>1279</v>
       </c>
@@ -27965,7 +27984,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="524" spans="1:26" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:26" ht="31.8" thickBot="1">
       <c r="A524" s="14" t="s">
         <v>1280</v>
       </c>
@@ -28001,7 +28020,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="525" spans="1:26" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:26" ht="16.2" thickBot="1">
       <c r="A525" s="14" t="s">
         <v>1281</v>
       </c>
@@ -28034,7 +28053,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="526" spans="1:26" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:26" ht="47.4" thickBot="1">
       <c r="A526" s="14" t="s">
         <v>1282</v>
       </c>
@@ -28070,7 +28089,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="527" spans="1:26" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:26" ht="16.2" thickBot="1">
       <c r="A527" s="14" t="s">
         <v>1283</v>
       </c>
@@ -28103,7 +28122,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="528" spans="1:26" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:26" ht="31.8" thickBot="1">
       <c r="A528" s="14" t="s">
         <v>1284</v>
       </c>
@@ -28139,7 +28158,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="529" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:29" ht="16.2" thickBot="1">
       <c r="A529" s="14" t="s">
         <v>1285</v>
       </c>
@@ -28172,7 +28191,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="530" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:29" ht="16.2" thickBot="1">
       <c r="A530" s="14" t="s">
         <v>1286</v>
       </c>
@@ -28211,7 +28230,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="531" spans="1:29" ht="86" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:29" ht="78.599999999999994" thickBot="1">
       <c r="A531" s="14" t="s">
         <v>1287</v>
       </c>
@@ -28244,7 +28263,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="532" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:29" ht="16.2" thickBot="1">
       <c r="A532" s="14" t="s">
         <v>1288</v>
       </c>
@@ -28277,7 +28296,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="533" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:29" ht="16.2" thickBot="1">
       <c r="A533" s="14" t="s">
         <v>1289</v>
       </c>
@@ -28310,7 +28329,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="534" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:29" ht="16.2" thickBot="1">
       <c r="A534" s="14" t="s">
         <v>1290</v>
       </c>
@@ -28349,7 +28368,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="535" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:29" ht="31.8" thickBot="1">
       <c r="A535" s="14" t="s">
         <v>1291</v>
       </c>
@@ -28385,7 +28404,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="536" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:29" ht="16.2" thickBot="1">
       <c r="A536" s="14" t="s">
         <v>1292</v>
       </c>
@@ -28418,7 +28437,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="537" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:29" ht="16.2" thickBot="1">
       <c r="A537" s="14" t="s">
         <v>1293</v>
       </c>
@@ -28451,7 +28470,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="538" spans="1:29" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:29" ht="47.4" thickBot="1">
       <c r="A538" s="14" t="s">
         <v>1294</v>
       </c>
@@ -28487,7 +28506,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="539" spans="1:29" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:29" ht="63" thickBot="1">
       <c r="A539" s="14" t="s">
         <v>1295</v>
       </c>
@@ -28523,7 +28542,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="540" spans="1:29" ht="120" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:29" ht="109.8" thickBot="1">
       <c r="A540" s="14" t="s">
         <v>1296</v>
       </c>
@@ -28559,7 +28578,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="541" spans="1:29" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:29" ht="47.4" thickBot="1">
       <c r="A541" s="14" t="s">
         <v>1297</v>
       </c>
@@ -28595,7 +28614,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="542" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:29" ht="31.8" thickBot="1">
       <c r="A542" s="14" t="s">
         <v>1298</v>
       </c>
@@ -28628,7 +28647,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="543" spans="1:29" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:29" ht="409.6" thickBot="1">
       <c r="A543" s="14" t="s">
         <v>1299</v>
       </c>
@@ -28670,7 +28689,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="544" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:29" ht="16.2" thickBot="1">
       <c r="A544" s="14" t="s">
         <v>1301</v>
       </c>
@@ -28706,7 +28725,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="545" spans="1:25" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:25" ht="47.4" thickBot="1">
       <c r="A545" s="14" t="s">
         <v>1302</v>
       </c>
@@ -28742,7 +28761,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="546" spans="1:25" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:25" ht="47.4" thickBot="1">
       <c r="A546" s="14" t="s">
         <v>1303</v>
       </c>
@@ -28775,7 +28794,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="547" spans="1:25" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:25" ht="16.2" thickBot="1">
       <c r="A547" s="14" t="s">
         <v>1304</v>
       </c>
@@ -28808,7 +28827,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="548" spans="1:25" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:25" ht="16.2" thickBot="1">
       <c r="A548" s="14" t="s">
         <v>1305</v>
       </c>
@@ -28841,7 +28860,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="549" spans="1:25" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:25" ht="16.2" thickBot="1">
       <c r="A549" s="14" t="s">
         <v>1306</v>
       </c>
@@ -28874,7 +28893,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="550" spans="1:25" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:25" ht="16.2" thickBot="1">
       <c r="A550" s="14" t="s">
         <v>1307</v>
       </c>
@@ -28907,7 +28926,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="551" spans="1:25" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:25" ht="31.8" thickBot="1">
       <c r="A551" s="14" t="s">
         <v>1308</v>
       </c>
@@ -28943,7 +28962,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="552" spans="1:25" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:25" ht="31.8" thickBot="1">
       <c r="A552" s="14" t="s">
         <v>1309</v>
       </c>
@@ -28979,7 +28998,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="553" spans="1:25" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:25" ht="31.8" thickBot="1">
       <c r="A553" s="14" t="s">
         <v>1310</v>
       </c>
@@ -29015,7 +29034,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="554" spans="1:25" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:25" ht="31.8" thickBot="1">
       <c r="A554" s="14" t="s">
         <v>1311</v>
       </c>
@@ -29051,7 +29070,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="555" spans="1:25" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:25" ht="31.8" thickBot="1">
       <c r="A555" s="14" t="s">
         <v>1312</v>
       </c>
@@ -29090,7 +29109,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="556" spans="1:25" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:25" ht="47.4" thickBot="1">
       <c r="A556" s="14" t="s">
         <v>1313</v>
       </c>
@@ -29129,7 +29148,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="557" spans="1:25" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:25" ht="31.8" thickBot="1">
       <c r="A557" s="14" t="s">
         <v>1314</v>
       </c>
@@ -29171,7 +29190,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="558" spans="1:25" ht="122" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:25" ht="112.8" thickBot="1">
       <c r="A558" s="14" t="s">
         <v>1315</v>
       </c>
@@ -29207,7 +29226,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="559" spans="1:25" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:25" ht="31.8" thickBot="1">
       <c r="A559" s="14" t="s">
         <v>1316</v>
       </c>
@@ -29243,7 +29262,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="560" spans="1:25" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:25" ht="63" thickBot="1">
       <c r="A560" s="14" t="s">
         <v>1317</v>
       </c>
@@ -29276,7 +29295,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="561" spans="1:13" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:13" ht="31.8" thickBot="1">
       <c r="A561" s="14" t="s">
         <v>1318</v>
       </c>
@@ -29306,7 +29325,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="562" spans="1:13" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:13" ht="16.2" thickBot="1">
       <c r="A562" s="14" t="s">
         <v>1319</v>
       </c>
@@ -29339,7 +29358,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="563" spans="1:13" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:13" ht="16.2" thickBot="1">
       <c r="A563" s="14" t="s">
         <v>1320</v>
       </c>
@@ -29372,7 +29391,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="564" spans="1:13" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:13" ht="16.2" thickBot="1">
       <c r="A564" s="14" t="s">
         <v>1321</v>
       </c>
@@ -29405,7 +29424,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="565" spans="1:13" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:13" ht="31.8" thickBot="1">
       <c r="A565" s="14" t="s">
         <v>1322</v>
       </c>
@@ -29441,7 +29460,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="566" spans="1:13" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:13" ht="16.2" thickBot="1">
       <c r="A566" s="14" t="s">
         <v>1323</v>
       </c>
@@ -29474,7 +29493,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="567" spans="1:13" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:13" ht="16.2" thickBot="1">
       <c r="A567" s="14" t="s">
         <v>1324</v>
       </c>
@@ -29507,7 +29526,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="568" spans="1:13" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:13" ht="31.8" thickBot="1">
       <c r="A568" s="14" t="s">
         <v>1325</v>
       </c>
@@ -29540,7 +29559,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="569" spans="1:13" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:13" ht="31.8" thickBot="1">
       <c r="A569" s="14" t="s">
         <v>1326</v>
       </c>
@@ -29576,7 +29595,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="570" spans="1:13" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:13" ht="16.2" thickBot="1">
       <c r="A570" s="14" t="s">
         <v>1327</v>
       </c>
@@ -29609,7 +29628,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="571" spans="1:13" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:13" ht="16.2" thickBot="1">
       <c r="A571" s="14" t="s">
         <v>1328</v>
       </c>
@@ -29645,7 +29664,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="572" spans="1:13" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:13" ht="16.2" thickBot="1">
       <c r="A572" s="14" t="s">
         <v>1329</v>
       </c>
@@ -29678,7 +29697,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="573" spans="1:13" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:13" ht="31.8" thickBot="1">
       <c r="A573" s="14" t="s">
         <v>1330</v>
       </c>
@@ -29714,7 +29733,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="574" spans="1:13" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:13" ht="16.2" thickBot="1">
       <c r="A574" s="14" t="s">
         <v>1331</v>
       </c>
@@ -29747,7 +29766,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="575" spans="1:13" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:13" ht="47.4" thickBot="1">
       <c r="A575" s="14" t="s">
         <v>1332</v>
       </c>
@@ -29783,7 +29802,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="576" spans="1:13" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:13" ht="47.4" thickBot="1">
       <c r="A576" s="14" t="s">
         <v>1333</v>
       </c>
@@ -29816,7 +29835,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="577" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:29" ht="16.2" thickBot="1">
       <c r="A577" s="14" t="s">
         <v>1334</v>
       </c>
@@ -29846,7 +29865,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="578" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:29" ht="31.8" thickBot="1">
       <c r="A578" s="14" t="s">
         <v>1335</v>
       </c>
@@ -29879,7 +29898,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="579" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:29" ht="16.2" thickBot="1">
       <c r="A579" s="14" t="s">
         <v>1336</v>
       </c>
@@ -29912,7 +29931,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="580" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:29" ht="16.2" thickBot="1">
       <c r="A580" s="14" t="s">
         <v>1337</v>
       </c>
@@ -29948,7 +29967,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="581" spans="1:29" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:29" ht="63" thickBot="1">
       <c r="A581" s="14" t="s">
         <v>1338</v>
       </c>
@@ -29981,7 +30000,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="582" spans="1:29" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:29" ht="63" thickBot="1">
       <c r="A582" s="14" t="s">
         <v>1339</v>
       </c>
@@ -30014,7 +30033,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="583" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:29" ht="31.8" thickBot="1">
       <c r="A583" s="14" t="s">
         <v>1340</v>
       </c>
@@ -30050,7 +30069,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="584" spans="1:29" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:29" ht="409.6" thickBot="1">
       <c r="A584" s="14" t="s">
         <v>1341</v>
       </c>
@@ -30080,7 +30099,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="585" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:29" ht="31.8" thickBot="1">
       <c r="A585" s="14" t="s">
         <v>1342</v>
       </c>
@@ -30116,7 +30135,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="586" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:29" ht="16.2" thickBot="1">
       <c r="A586" s="14" t="s">
         <v>1343</v>
       </c>
@@ -30149,7 +30168,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="587" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:29" ht="16.2" thickBot="1">
       <c r="A587" s="14" t="s">
         <v>1344</v>
       </c>
@@ -30182,7 +30201,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="588" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:29" ht="16.2" thickBot="1">
       <c r="A588" s="14" t="s">
         <v>1345</v>
       </c>
@@ -30215,7 +30234,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="589" spans="1:29" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:29" ht="47.4" thickBot="1">
       <c r="A589" s="14" t="s">
         <v>1346</v>
       </c>
@@ -30254,7 +30273,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="590" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:29" ht="31.8" thickBot="1">
       <c r="A590" s="14" t="s">
         <v>1347</v>
       </c>
@@ -30290,7 +30309,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="591" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:29" ht="31.8" thickBot="1">
       <c r="A591" s="14" t="s">
         <v>1348</v>
       </c>
@@ -30329,7 +30348,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="592" spans="1:29" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:29" ht="31.8" thickBot="1">
       <c r="A592" s="14" t="s">
         <v>1349</v>
       </c>
@@ -30365,7 +30384,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="593" spans="1:16" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:16" ht="31.8" thickBot="1">
       <c r="A593" s="14" t="s">
         <v>1350</v>
       </c>
@@ -30401,7 +30420,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="594" spans="1:16" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:16" ht="31.8" thickBot="1">
       <c r="A594" s="14" t="s">
         <v>1351</v>
       </c>
@@ -30437,7 +30456,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="595" spans="1:16" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:16" ht="31.8" thickBot="1">
       <c r="A595" s="14" t="s">
         <v>1352</v>
       </c>
@@ -30473,7 +30492,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="596" spans="1:16" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:16" ht="31.8" thickBot="1">
       <c r="A596" s="14" t="s">
         <v>1353</v>
       </c>
@@ -30509,7 +30528,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="597" spans="1:16" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:16" ht="31.8" thickBot="1">
       <c r="A597" s="14" t="s">
         <v>1354</v>
       </c>
@@ -30545,7 +30564,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="598" spans="1:16" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:16" ht="31.8" thickBot="1">
       <c r="A598" s="14" t="s">
         <v>1355</v>
       </c>
@@ -30581,7 +30600,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="599" spans="1:16" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:16" ht="31.8" thickBot="1">
       <c r="A599" s="14" t="s">
         <v>1356</v>
       </c>
@@ -30617,7 +30636,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="600" spans="1:16" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:16" ht="47.4" thickBot="1">
       <c r="A600" s="14" t="s">
         <v>1357</v>
       </c>
@@ -30650,7 +30669,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="601" spans="1:16" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:16" ht="47.4" thickBot="1">
       <c r="A601" s="14" t="s">
         <v>1358</v>
       </c>
@@ -30683,7 +30702,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="602" spans="1:16" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:16" ht="31.8" thickBot="1">
       <c r="A602" s="14" t="s">
         <v>1359</v>
       </c>
@@ -30716,7 +30735,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="603" spans="1:16" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:16" ht="31.8" thickBot="1">
       <c r="A603" s="14" t="s">
         <v>1360</v>
       </c>
